--- a/original-sources/DSHS_tsa_hosp_cap.xlsx
+++ b/original-sources/DSHS_tsa_hosp_cap.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="509">
-  <si>
-    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/09/20 at 9:30 AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="556">
+  <si>
+    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -296,6 +296,9 @@
     <t>2020-07-09</t>
   </si>
   <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -503,7 +506,73 @@
     <t>11296</t>
   </si>
   <si>
-    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/09/20 at 9:30 AM CST</t>
+    <t>302</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>1768</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>10698</t>
+  </si>
+  <si>
+    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>38</t>
@@ -572,7 +641,49 @@
     <t>953</t>
   </si>
   <si>
-    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/09/20 at 9:30 AM CST</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>680</t>
@@ -641,7 +752,76 @@
     <t>46706</t>
   </si>
   <si>
-    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/09/20 at 9:30 AM CST</t>
+    <t>708</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>12352</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>4618</t>
+  </si>
+  <si>
+    <t>11583</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>2747</t>
+  </si>
+  <si>
+    <t>46943</t>
+  </si>
+  <si>
+    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t/>
@@ -680,24 +860,15 @@
     <t>37</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>255</t>
   </si>
   <si>
-    <t>302</t>
-  </si>
-  <si>
     <t>1580</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>142</t>
   </si>
   <si>
@@ -725,12 +896,6 @@
     <t>152</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -812,9 +977,6 @@
     <t>179</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>214</t>
   </si>
   <si>
@@ -842,9 +1004,6 @@
     <t>1180</t>
   </si>
   <si>
-    <t>228</t>
-  </si>
-  <si>
     <t>174</t>
   </si>
   <si>
@@ -863,9 +1022,6 @@
     <t>361</t>
   </si>
   <si>
-    <t>1541</t>
-  </si>
-  <si>
     <t>149</t>
   </si>
   <si>
@@ -887,15 +1043,9 @@
     <t>184</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>242</t>
   </si>
   <si>
@@ -932,9 +1082,6 @@
     <t>181</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>263</t>
   </si>
   <si>
@@ -1022,9 +1169,6 @@
     <t>58</t>
   </si>
   <si>
-    <t>191</t>
-  </si>
-  <si>
     <t>185</t>
   </si>
   <si>
@@ -1037,9 +1181,6 @@
     <t>160</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>1286</t>
   </si>
   <si>
@@ -1055,9 +1196,6 @@
     <t>1534</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>1201</t>
   </si>
   <si>
@@ -1121,9 +1259,6 @@
     <t>72</t>
   </si>
   <si>
-    <t>262</t>
-  </si>
-  <si>
     <t>440</t>
   </si>
   <si>
@@ -1151,9 +1286,6 @@
     <t>252</t>
   </si>
   <si>
-    <t>439</t>
-  </si>
-  <si>
     <t>1592</t>
   </si>
   <si>
@@ -1244,9 +1376,6 @@
     <t>206</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>286</t>
   </si>
   <si>
@@ -1421,15 +1550,9 @@
     <t>1436</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>311</t>
   </si>
   <si>
-    <t>461</t>
-  </si>
-  <si>
     <t>1670</t>
   </si>
   <si>
@@ -1499,9 +1622,6 @@
     <t>1398</t>
   </si>
   <si>
-    <t>296</t>
-  </si>
-  <si>
     <t>438</t>
   </si>
   <si>
@@ -1538,10 +1658,31 @@
     <t>1817</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
     <t>6478</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>6379</t>
   </si>
 </sst>
 </file>
@@ -1941,13 +2082,16 @@
       <c r="CM3" t="s" s="10">
         <v>92</v>
       </c>
+      <c r="CN3" t="s" s="10">
+        <v>93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" t="n">
         <v>613.0</v>
@@ -2214,15 +2358,18 @@
         <v>352.0</v>
       </c>
       <c r="CM4" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
         <v>613.0</v>
@@ -2489,15 +2636,18 @@
         <v>335.0</v>
       </c>
       <c r="CM5" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="n">
         <v>348.0</v>
@@ -2764,15 +2914,18 @@
         <v>218.0</v>
       </c>
       <c r="CM6" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="n">
         <v>479.0</v>
@@ -3039,15 +3192,18 @@
         <v>475.0</v>
       </c>
       <c r="CM7" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="n">
         <v>5095.0</v>
@@ -3314,15 +3470,18 @@
         <v>2451.0</v>
       </c>
       <c r="CM8" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" t="n">
         <v>261.0</v>
@@ -3589,15 +3748,18 @@
         <v>803.0</v>
       </c>
       <c r="CM9" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" t="n">
         <v>714.0</v>
@@ -3864,15 +4026,18 @@
         <v>509.0</v>
       </c>
       <c r="CM10" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" t="n">
         <v>257.0</v>
@@ -4139,15 +4304,18 @@
         <v>169.0</v>
       </c>
       <c r="CM11" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" t="n">
         <v>702.0</v>
@@ -4414,15 +4582,18 @@
         <v>381.0</v>
       </c>
       <c r="CM12" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" t="n">
         <v>732.0</v>
@@ -4689,15 +4860,18 @@
         <v>547.0</v>
       </c>
       <c r="CM13" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" t="n">
         <v>284.0</v>
@@ -4964,15 +5138,18 @@
         <v>142.0</v>
       </c>
       <c r="CM14" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="n">
         <v>663.0</v>
@@ -5239,15 +5416,18 @@
         <v>231.0</v>
       </c>
       <c r="CM15" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="n">
         <v>363.0</v>
@@ -5514,15 +5694,18 @@
         <v>205.0</v>
       </c>
       <c r="CM16" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="n">
         <v>278.0</v>
@@ -5789,15 +5972,18 @@
         <v>181.0</v>
       </c>
       <c r="CM17" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" t="n">
         <v>1408.0</v>
@@ -6064,15 +6250,18 @@
         <v>693.0</v>
       </c>
       <c r="CM18" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="n">
         <v>2488.0</v>
@@ -6339,15 +6528,18 @@
         <v>720.0</v>
       </c>
       <c r="CM19" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" t="n">
         <v>4062.0</v>
@@ -6614,15 +6806,18 @@
         <v>1868.0</v>
       </c>
       <c r="CM20" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" t="n">
         <v>572.0</v>
@@ -6889,15 +7084,18 @@
         <v>355.0</v>
       </c>
       <c r="CM21" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="n">
         <v>277.0</v>
@@ -7164,15 +7362,18 @@
         <v>134.0</v>
       </c>
       <c r="CM22" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
@@ -7439,15 +7640,18 @@
         <v>65.0</v>
       </c>
       <c r="CM23" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" t="n">
         <v>360.0</v>
@@ -7714,15 +7918,18 @@
         <v>317.0</v>
       </c>
       <c r="CM24" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" t="n">
         <v>881.0</v>
@@ -7989,15 +8196,18 @@
         <v>424.0</v>
       </c>
       <c r="CM25" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="n">
         <v>21550.0</v>
@@ -8264,7 +8474,10 @@
         <v>11575.0</v>
       </c>
       <c r="CM26" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -8282,7 +8495,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
@@ -8564,13 +8777,16 @@
       <c r="CM3" t="s" s="10">
         <v>92</v>
       </c>
+      <c r="CN3" t="s" s="10">
+        <v>93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" t="n">
         <v>77.0</v>
@@ -8837,15 +9053,18 @@
         <v>37.0</v>
       </c>
       <c r="CM4" t="s">
-        <v>163</v>
+        <v>186</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
         <v>93.0</v>
@@ -9112,15 +9331,18 @@
         <v>16.0</v>
       </c>
       <c r="CM5" t="s">
-        <v>164</v>
+        <v>187</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -9387,15 +9609,18 @@
         <v>14.0</v>
       </c>
       <c r="CM6" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="n">
         <v>36.0</v>
@@ -9662,15 +9887,18 @@
         <v>23.0</v>
       </c>
       <c r="CM7" t="s">
-        <v>166</v>
+        <v>189</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="n">
         <v>623.0</v>
@@ -9937,15 +10165,18 @@
         <v>296.0</v>
       </c>
       <c r="CM8" t="s">
-        <v>167</v>
+        <v>190</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" t="n">
         <v>36.0</v>
@@ -10212,15 +10443,18 @@
         <v>100.0</v>
       </c>
       <c r="CM9" t="s">
-        <v>168</v>
+        <v>191</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" t="n">
         <v>103.0</v>
@@ -10487,15 +10721,18 @@
         <v>90.0</v>
       </c>
       <c r="CM10" t="s">
-        <v>169</v>
+        <v>192</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" t="n">
         <v>35.0</v>
@@ -10762,15 +10999,18 @@
         <v>10.0</v>
       </c>
       <c r="CM11" t="s">
-        <v>170</v>
+        <v>193</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" t="n">
         <v>73.0</v>
@@ -11037,15 +11277,18 @@
         <v>33.0</v>
       </c>
       <c r="CM12" t="s">
-        <v>171</v>
+        <v>194</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" t="n">
         <v>42.0</v>
@@ -11312,15 +11555,18 @@
         <v>27.0</v>
       </c>
       <c r="CM13" t="s">
-        <v>172</v>
+        <v>195</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -11587,15 +11833,18 @@
         <v>9.0</v>
       </c>
       <c r="CM14" t="s">
-        <v>173</v>
+        <v>196</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="n">
         <v>56.0</v>
@@ -11862,15 +12111,18 @@
         <v>13.0</v>
       </c>
       <c r="CM15" t="s">
-        <v>174</v>
+        <v>197</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="n">
         <v>26.0</v>
@@ -12137,15 +12389,18 @@
         <v>7.0</v>
       </c>
       <c r="CM16" t="s">
-        <v>175</v>
+        <v>198</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="n">
         <v>15.0</v>
@@ -12412,15 +12667,18 @@
         <v>12.0</v>
       </c>
       <c r="CM17" t="s">
-        <v>176</v>
+        <v>199</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" t="n">
         <v>144.0</v>
@@ -12687,15 +12945,18 @@
         <v>59.0</v>
       </c>
       <c r="CM18" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="n">
         <v>351.0</v>
@@ -12962,15 +13223,18 @@
         <v>96.0</v>
       </c>
       <c r="CM19" t="s">
-        <v>178</v>
+        <v>201</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" t="n">
         <v>403.0</v>
@@ -13237,15 +13501,18 @@
         <v>128.0</v>
       </c>
       <c r="CM20" t="s">
-        <v>179</v>
+        <v>202</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" t="n">
         <v>48.0</v>
@@ -13512,15 +13779,18 @@
         <v>1.0</v>
       </c>
       <c r="CM21" t="s">
-        <v>180</v>
+        <v>203</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="n">
         <v>30.0</v>
@@ -13787,15 +14057,18 @@
         <v>13.0</v>
       </c>
       <c r="CM22" t="s">
-        <v>181</v>
+        <v>204</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -14062,15 +14335,18 @@
         <v>5.0</v>
       </c>
       <c r="CM23" t="s">
-        <v>181</v>
+        <v>204</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" t="n">
         <v>21.0</v>
@@ -14337,15 +14613,18 @@
         <v>3.0</v>
       </c>
       <c r="CM24" t="s">
-        <v>182</v>
+        <v>205</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" t="n">
         <v>108.0</v>
@@ -14612,15 +14891,18 @@
         <v>25.0</v>
       </c>
       <c r="CM25" t="s">
-        <v>183</v>
+        <v>206</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="n">
         <v>2368.0</v>
@@ -14887,7 +15169,10 @@
         <v>1017.0</v>
       </c>
       <c r="CM26" t="s">
-        <v>184</v>
+        <v>207</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -14905,7 +15190,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2">
@@ -15187,13 +15472,16 @@
       <c r="CM3" t="s" s="10">
         <v>92</v>
       </c>
+      <c r="CN3" t="s" s="10">
+        <v>93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" t="n">
         <v>417.0</v>
@@ -15460,15 +15748,18 @@
         <v>653.0</v>
       </c>
       <c r="CM4" t="s">
-        <v>186</v>
+        <v>223</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
         <v>755.0</v>
@@ -15735,15 +16026,18 @@
         <v>933.0</v>
       </c>
       <c r="CM5" t="s">
-        <v>187</v>
+        <v>224</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="n">
         <v>240.0</v>
@@ -16010,15 +16304,18 @@
         <v>335.0</v>
       </c>
       <c r="CM6" t="s">
-        <v>188</v>
+        <v>225</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="n">
         <v>214.0</v>
@@ -16285,15 +16582,18 @@
         <v>521.0</v>
       </c>
       <c r="CM7" t="s">
-        <v>189</v>
+        <v>226</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="n">
         <v>7347.0</v>
@@ -16560,15 +16860,18 @@
         <v>11769.0</v>
       </c>
       <c r="CM8" t="s">
-        <v>190</v>
+        <v>227</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" t="n">
         <v>421.0</v>
@@ -16835,15 +17138,18 @@
         <v>563.0</v>
       </c>
       <c r="CM9" t="s">
-        <v>191</v>
+        <v>228</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" t="n">
         <v>921.0</v>
@@ -17110,15 +17416,18 @@
         <v>1532.0</v>
       </c>
       <c r="CM10" t="s">
-        <v>192</v>
+        <v>229</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" t="n">
         <v>190.0</v>
@@ -17385,15 +17694,18 @@
         <v>347.0</v>
       </c>
       <c r="CM11" t="s">
-        <v>193</v>
+        <v>230</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" t="n">
         <v>328.0</v>
@@ -17660,15 +17972,18 @@
         <v>1471.0</v>
       </c>
       <c r="CM12" t="s">
-        <v>194</v>
+        <v>231</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" t="n">
         <v>663.0</v>
@@ -17935,15 +18250,18 @@
         <v>611.0</v>
       </c>
       <c r="CM13" t="s">
-        <v>195</v>
+        <v>232</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" t="n">
         <v>208.0</v>
@@ -18210,15 +18528,18 @@
         <v>260.0</v>
       </c>
       <c r="CM14" t="s">
-        <v>196</v>
+        <v>233</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="n">
         <v>434.0</v>
@@ -18485,15 +18806,18 @@
         <v>792.0</v>
       </c>
       <c r="CM15" t="s">
-        <v>197</v>
+        <v>234</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="n">
         <v>262.0</v>
@@ -18760,15 +19084,18 @@
         <v>363.0</v>
       </c>
       <c r="CM16" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="n">
         <v>234.0</v>
@@ -19035,15 +19362,18 @@
         <v>328.0</v>
       </c>
       <c r="CM17" t="s">
-        <v>198</v>
+        <v>235</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" t="n">
         <v>1059.0</v>
@@ -19310,15 +19640,18 @@
         <v>2599.0</v>
       </c>
       <c r="CM18" t="s">
-        <v>199</v>
+        <v>236</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="n">
         <v>3398.0</v>
@@ -19585,15 +19918,18 @@
         <v>4552.0</v>
       </c>
       <c r="CM19" t="s">
-        <v>200</v>
+        <v>237</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" t="n">
         <v>6949.0</v>
@@ -19860,15 +20196,18 @@
         <v>11230.0</v>
       </c>
       <c r="CM20" t="s">
-        <v>201</v>
+        <v>238</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" t="n">
         <v>867.0</v>
@@ -20135,15 +20474,18 @@
         <v>1551.0</v>
       </c>
       <c r="CM21" t="s">
-        <v>202</v>
+        <v>239</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="n">
         <v>254.0</v>
@@ -20410,15 +20752,18 @@
         <v>409.0</v>
       </c>
       <c r="CM22" t="s">
-        <v>203</v>
+        <v>240</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="n">
         <v>255.0</v>
@@ -20685,15 +21030,18 @@
         <v>376.0</v>
       </c>
       <c r="CM23" t="s">
-        <v>204</v>
+        <v>241</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" t="n">
         <v>785.0</v>
@@ -20960,15 +21308,18 @@
         <v>1079.0</v>
       </c>
       <c r="CM24" t="s">
-        <v>205</v>
+        <v>242</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" t="n">
         <v>1219.0</v>
@@ -21235,15 +21586,18 @@
         <v>2742.0</v>
       </c>
       <c r="CM25" t="s">
-        <v>206</v>
+        <v>243</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="n">
         <v>27420.0</v>
@@ -21510,7 +21864,10 @@
         <v>45016.0</v>
       </c>
       <c r="CM26" t="s">
-        <v>207</v>
+        <v>244</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -21528,7 +21885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>208</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
@@ -21777,130 +22134,133 @@
       <c r="CB3" t="s" s="10">
         <v>92</v>
       </c>
+      <c r="CC3" t="s" s="10">
+        <v>93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="G4" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="I4" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="K4" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="L4" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="M4" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="N4" t="s">
-        <v>346</v>
+        <v>180</v>
       </c>
       <c r="O4" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="P4" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="Q4" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="R4" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="S4" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="T4" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="U4" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="V4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W4" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="X4" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="Y4" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="Z4" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AA4" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="AB4" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="AC4" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="AD4" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="AE4" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="AF4" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="AG4" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="AH4" t="s">
-        <v>346</v>
+        <v>180</v>
       </c>
       <c r="AI4" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="AJ4" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="AK4" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="AL4" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="AM4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN4" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="AO4" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="AP4" t="n">
         <v>92.0</v>
@@ -22017,132 +22377,135 @@
         <v>108.0</v>
       </c>
       <c r="CB4" t="s">
-        <v>438</v>
+        <v>481</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="G5" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="J5" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="K5" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="L5" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="M5" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="N5" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="O5" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="P5" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="Q5" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="R5" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="S5" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="T5" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="U5" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="V5" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="W5" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="X5" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="Y5" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="Z5" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="AA5" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="AB5" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="AC5" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="AD5" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="AE5" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="AF5" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="AG5" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="AH5" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="AI5" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="AJ5" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="AK5" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="AL5" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="AM5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN5" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="AO5" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="AP5" t="n">
         <v>100.0</v>
@@ -22259,132 +22622,135 @@
         <v>152.0</v>
       </c>
       <c r="CB5" t="s">
-        <v>245</v>
+        <v>300</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="L6" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="N6" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="O6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="P6" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="Q6" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="R6" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="S6" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="T6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="U6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="V6" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="W6" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="X6" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="Y6" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="Z6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AA6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AB6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AC6" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="AD6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AE6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AF6" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="AG6" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="AH6" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="AI6" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="AJ6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AK6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AL6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AM6" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="AN6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="AO6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="AP6" t="n">
         <v>24.0</v>
@@ -22501,132 +22867,135 @@
         <v>32.0</v>
       </c>
       <c r="CB6" t="s">
-        <v>277</v>
+        <v>330</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="I7" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="K7" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="L7" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="M7" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O7" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="P7" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="Q7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="R7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="S7" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="T7" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="U7" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="V7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="W7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="X7" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="Y7" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="Z7" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="AA7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="AB7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="AC7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="AD7" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="AE7" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="AF7" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="AG7" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AI7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AJ7" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="AK7" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AL7" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="AM7" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AN7" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="AO7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="AP7" t="n">
         <v>31.0</v>
@@ -22743,132 +23112,135 @@
         <v>47.0</v>
       </c>
       <c r="CB7" t="s">
-        <v>330</v>
+        <v>379</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="I8" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="J8" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="K8" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="L8" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="M8" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="N8" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="O8" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="P8" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="Q8" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="R8" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="S8" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="T8" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="U8" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="V8" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="W8" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="X8" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="Y8" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="Z8" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="AA8" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="AB8" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="AC8" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="AD8" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="AE8" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AF8" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="AG8" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="AH8" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="AI8" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="AJ8" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="AK8" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="AL8" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="AM8" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="AN8" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="AO8" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="AP8" t="n">
         <v>1361.0</v>
@@ -22985,132 +23357,135 @@
         <v>1393.0</v>
       </c>
       <c r="CB8" t="s">
-        <v>502</v>
+        <v>542</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="H9" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="I9" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="J9" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="K9" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="L9" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="M9" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="N9" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="O9" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="Q9" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="R9" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="S9" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="T9" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="U9" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="V9" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="W9" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="X9" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="Y9" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="Z9" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="AA9" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="AB9" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="AC9" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="AD9" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="AE9" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="AF9" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AG9" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AH9" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="AI9" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="AJ9" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AK9" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="AL9" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="AM9" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AN9" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="AO9" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="AP9" t="n">
         <v>49.0</v>
@@ -23227,132 +23602,135 @@
         <v>59.0</v>
       </c>
       <c r="CB9" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="F10" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="I10" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="J10" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="K10" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="L10" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="M10" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="N10" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="O10" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="P10" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="Q10" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="R10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S10" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="T10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U10" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="V10" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="W10" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="X10" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="Y10" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB10" t="s">
         <v>427</v>
       </c>
-      <c r="Z10" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>440</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>383</v>
-      </c>
       <c r="AC10" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="AD10" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="AE10" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="AF10" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="AG10" t="s">
-        <v>468</v>
+        <v>173</v>
       </c>
       <c r="AH10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="AK10" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="AL10" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="AM10" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="AN10" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="AO10" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="AP10" t="n">
         <v>203.0</v>
@@ -23469,132 +23847,135 @@
         <v>227.0</v>
       </c>
       <c r="CB10" t="s">
-        <v>503</v>
+        <v>543</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="I11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="J11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="K11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="L11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="M11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="N11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="O11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Q11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="R11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="S11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="T11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="U11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="V11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="W11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="X11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Y11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Z11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AA11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AB11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AC11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AD11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AE11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AF11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AG11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AH11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AI11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AJ11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AK11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AL11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AM11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AN11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AO11" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AP11" t="n">
         <v>45.0</v>
@@ -23711,132 +24092,135 @@
         <v>59.0</v>
       </c>
       <c r="CB11" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" t="s">
+        <v>341</v>
+      </c>
+      <c r="I12" t="s">
+        <v>354</v>
+      </c>
+      <c r="J12" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" t="s">
+        <v>374</v>
+      </c>
+      <c r="L12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" t="s">
+        <v>389</v>
+      </c>
+      <c r="N12" t="s">
+        <v>395</v>
+      </c>
+      <c r="O12" t="s">
+        <v>389</v>
+      </c>
+      <c r="P12" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>420</v>
+      </c>
+      <c r="R12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S12" t="s">
+        <v>420</v>
+      </c>
+      <c r="T12" t="s">
         <v>152</v>
       </c>
-      <c r="D12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" t="s">
-        <v>276</v>
-      </c>
-      <c r="H12" t="s">
-        <v>289</v>
-      </c>
-      <c r="I12" t="s">
-        <v>304</v>
-      </c>
-      <c r="J12" t="s">
-        <v>315</v>
-      </c>
-      <c r="K12" t="s">
-        <v>325</v>
-      </c>
-      <c r="L12" t="s">
-        <v>335</v>
-      </c>
-      <c r="M12" t="s">
-        <v>342</v>
-      </c>
-      <c r="N12" t="s">
-        <v>349</v>
-      </c>
-      <c r="O12" t="s">
-        <v>342</v>
-      </c>
-      <c r="P12" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>375</v>
-      </c>
-      <c r="R12" t="s">
-        <v>141</v>
-      </c>
-      <c r="S12" t="s">
-        <v>375</v>
-      </c>
-      <c r="T12" t="s">
-        <v>151</v>
-      </c>
       <c r="U12" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="V12" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="W12" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="X12" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="Y12" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="Z12" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="AA12" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="AB12" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c r="AC12" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="AD12" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="AE12" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="AF12" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="AG12" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="AH12" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="AI12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AO12" t="s">
         <v>280</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>474</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>486</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>486</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>463</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>220</v>
       </c>
       <c r="AP12" t="n">
         <v>213.0</v>
@@ -23953,132 +24337,135 @@
         <v>233.0</v>
       </c>
       <c r="CB12" t="s">
-        <v>486</v>
+        <v>527</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="G13" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="I13" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="J13" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="L13" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="M13" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="N13" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="O13" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="Q13" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="R13" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="S13" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="T13" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="U13" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="V13" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="W13" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="X13" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Y13" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="Z13" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="AA13" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AB13" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC13" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="AD13" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AE13" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AF13" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="AG13" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AH13" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AI13" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="AJ13" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="AK13" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AL13" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="AM13" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="AN13" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="AO13" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AP13" t="n">
         <v>49.0</v>
@@ -24195,132 +24582,135 @@
         <v>56.0</v>
       </c>
       <c r="CB13" t="s">
-        <v>287</v>
+        <v>339</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" t="s">
         <v>219</v>
       </c>
-      <c r="D14" t="s">
-        <v>237</v>
-      </c>
       <c r="E14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" t="s">
         <v>219</v>
       </c>
-      <c r="F14" t="s">
-        <v>265</v>
-      </c>
-      <c r="G14" t="s">
-        <v>237</v>
-      </c>
       <c r="H14" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="I14" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="J14" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M14" t="s">
+        <v>204</v>
+      </c>
+      <c r="N14" t="s">
+        <v>188</v>
+      </c>
+      <c r="O14" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>412</v>
+      </c>
+      <c r="R14" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" t="s">
+        <v>279</v>
+      </c>
+      <c r="T14" t="s">
+        <v>214</v>
+      </c>
+      <c r="U14" t="s">
+        <v>327</v>
+      </c>
+      <c r="V14" t="s">
+        <v>279</v>
+      </c>
+      <c r="W14" t="s">
+        <v>412</v>
+      </c>
+      <c r="X14" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO14" t="s">
         <v>219</v>
-      </c>
-      <c r="K14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" t="s">
-        <v>219</v>
-      </c>
-      <c r="M14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N14" t="s">
-        <v>165</v>
-      </c>
-      <c r="O14" t="s">
-        <v>165</v>
-      </c>
-      <c r="P14" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>366</v>
-      </c>
-      <c r="R14" t="s">
-        <v>181</v>
-      </c>
-      <c r="S14" t="s">
-        <v>219</v>
-      </c>
-      <c r="T14" t="s">
-        <v>290</v>
-      </c>
-      <c r="U14" t="s">
-        <v>273</v>
-      </c>
-      <c r="V14" t="s">
-        <v>219</v>
-      </c>
-      <c r="W14" t="s">
-        <v>366</v>
-      </c>
-      <c r="X14" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>366</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>340</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>290</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>237</v>
       </c>
       <c r="AP14" t="n">
         <v>15.0</v>
@@ -24437,132 +24827,135 @@
         <v>20.0</v>
       </c>
       <c r="CB14" t="s">
-        <v>164</v>
+        <v>187</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="H15" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="I15" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="J15" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="K15" t="s">
+        <v>375</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="s">
+        <v>391</v>
+      </c>
+      <c r="N15" t="s">
+        <v>396</v>
+      </c>
+      <c r="O15" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>421</v>
+      </c>
+      <c r="R15" t="s">
+        <v>426</v>
+      </c>
+      <c r="S15" t="s">
+        <v>435</v>
+      </c>
+      <c r="T15" t="s">
+        <v>441</v>
+      </c>
+      <c r="U15" t="s">
+        <v>331</v>
+      </c>
+      <c r="V15" t="s">
+        <v>181</v>
+      </c>
+      <c r="W15" t="s">
+        <v>401</v>
+      </c>
+      <c r="X15" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>441</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM15" t="s">
         <v>326</v>
       </c>
-      <c r="L15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M15" t="s">
-        <v>344</v>
-      </c>
-      <c r="N15" t="s">
-        <v>350</v>
-      </c>
-      <c r="O15" t="s">
-        <v>178</v>
-      </c>
-      <c r="P15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>376</v>
-      </c>
-      <c r="R15" t="s">
-        <v>382</v>
-      </c>
-      <c r="S15" t="s">
-        <v>391</v>
-      </c>
-      <c r="T15" t="s">
-        <v>397</v>
-      </c>
-      <c r="U15" t="s">
-        <v>278</v>
-      </c>
-      <c r="V15" t="s">
-        <v>409</v>
-      </c>
-      <c r="W15" t="s">
-        <v>355</v>
-      </c>
-      <c r="X15" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>445</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>464</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>373</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>272</v>
-      </c>
       <c r="AN15" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="AO15" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="AP15" t="n">
         <v>129.0</v>
@@ -24679,132 +25072,135 @@
         <v>144.0</v>
       </c>
       <c r="CB15" t="s">
-        <v>472</v>
+        <v>513</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G16" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="I16" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="J16" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="L16" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="M16" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="N16" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="O16" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="Q16" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="R16" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="S16" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="T16" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="U16" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="V16" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="W16" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="X16" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="Y16" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="Z16" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AA16" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="AB16" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="AC16" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="AD16" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="AE16" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AF16" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="AG16" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AH16" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AI16" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="AJ16" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="AK16" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="AL16" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="AM16" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AN16" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="AO16" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="AP16" t="n">
         <v>46.0</v>
@@ -24921,132 +25317,135 @@
         <v>59.0</v>
       </c>
       <c r="CB16" t="s">
-        <v>253</v>
+        <v>308</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="H17" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="O17" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q17" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="R17" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="S17" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="T17" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="U17" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="V17" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="Z17" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="AA17" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AB17" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC17" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="AD17" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AE17" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AF17" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="AH17" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="AI17" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AJ17" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="AK17" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AL17" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AM17" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="AO17" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AP17" t="n">
         <v>22.0</v>
@@ -25163,132 +25562,135 @@
         <v>36.0</v>
       </c>
       <c r="CB17" t="s">
-        <v>163</v>
+        <v>186</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="G18" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="H18" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="I18" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="J18" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="K18" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="L18" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="M18" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="N18" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="O18" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="P18" t="s">
-        <v>368</v>
+        <v>179</v>
       </c>
       <c r="Q18" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="R18" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="S18" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="T18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U18" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="V18" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="W18" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="X18" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="Y18" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="Z18" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="AA18" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="AB18" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="AC18" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="AD18" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="AE18" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="AF18" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="AG18" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="AH18" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="AI18" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="AJ18" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="AK18" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="AL18" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="AM18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="s">
-        <v>494</v>
+        <v>182</v>
       </c>
       <c r="AO18" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="AP18" t="n">
         <v>269.0</v>
@@ -25405,132 +25807,135 @@
         <v>383.0</v>
       </c>
       <c r="CB18" t="s">
-        <v>504</v>
+        <v>544</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="H19" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="I19" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="K19" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="L19" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="M19" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="N19" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="O19" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="P19" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="Q19" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="R19" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="S19" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="T19" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="U19" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="V19" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="W19" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="X19" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="Y19" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="Z19" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="AA19" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="AB19" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="AC19" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="AD19" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="AE19" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="AF19" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="AG19" t="s">
-        <v>470</v>
+        <v>168</v>
       </c>
       <c r="AH19" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="AI19" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="AJ19" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="AK19" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="AL19" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="AM19" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="AN19" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="AO19" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="AP19" t="n">
         <v>465.0</v>
@@ -25647,132 +26052,135 @@
         <v>606.0</v>
       </c>
       <c r="CB19" t="s">
-        <v>505</v>
+        <v>545</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="F20" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="G20" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="I20" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="J20" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="K20" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="L20" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="M20" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="N20" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="O20" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="P20" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="Q20" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="R20" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="S20" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="T20" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="U20" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="V20" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="W20" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="X20" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="Y20" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="Z20" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="AA20" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="AB20" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="AC20" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="AD20" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="AE20" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="AF20" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="AG20" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="AH20" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="AI20" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="AJ20" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="AK20" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="AL20" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="AM20" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="AN20" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="AO20" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="AP20" t="n">
         <v>1695.0</v>
@@ -25889,132 +26297,135 @@
         <v>1803.0</v>
       </c>
       <c r="CB20" t="s">
-        <v>506</v>
+        <v>546</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="I21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="M21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="N21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="O21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Q21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="R21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="S21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="T21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="U21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="V21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Z21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AA21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AB21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AC21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AD21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AE21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AF21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AG21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AH21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AI21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AJ21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AK21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AL21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AM21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AN21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AO21" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AP21" t="n">
         <v>198.0</v>
@@ -26131,132 +26542,135 @@
         <v>226.0</v>
       </c>
       <c r="CB21" t="s">
-        <v>463</v>
+        <v>506</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="K22" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="M22" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N22" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="Q22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="R22" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="S22" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="T22" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="U22" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="V22" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="W22" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="X22" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="Y22" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="Z22" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AA22" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AB22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="AC22" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AD22" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AE22" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="AF22" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AG22" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="AH22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="AI22" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AJ22" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="AK22" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="AL22" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="AM22" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AN22" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AO22" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AP22" t="n">
         <v>38.0</v>
@@ -26373,132 +26787,135 @@
         <v>61.0</v>
       </c>
       <c r="CB22" t="s">
-        <v>324</v>
+        <v>373</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E23" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="G23" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="H23" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="I23" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="J23" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="K23" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="L23" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="M23" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="N23" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="O23" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="P23" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="Q23" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="R23" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="S23" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="T23" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="U23" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="V23" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="W23" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="X23" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="Y23" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="Z23" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AA23" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="AB23" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="AC23" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="AD23" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="AE23" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AF23" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="AG23" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AH23" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="AI23" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="AJ23" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AK23" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AL23" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AM23" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="AN23" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AO23" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="AP23" t="n">
         <v>52.0</v>
@@ -26615,132 +27032,135 @@
         <v>76.0</v>
       </c>
       <c r="CB23" t="s">
-        <v>326</v>
+        <v>375</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="E24" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="G24" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="H24" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="I24" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="J24" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="K24" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="L24" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="M24" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="N24" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="O24" t="s">
+        <v>337</v>
+      </c>
+      <c r="P24" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>292</v>
+      </c>
+      <c r="R24" t="s">
+        <v>430</v>
+      </c>
+      <c r="S24" t="s">
+        <v>307</v>
+      </c>
+      <c r="T24" t="s">
+        <v>323</v>
+      </c>
+      <c r="U24" t="s">
+        <v>449</v>
+      </c>
+      <c r="V24" t="s">
+        <v>284</v>
+      </c>
+      <c r="W24" t="s">
+        <v>461</v>
+      </c>
+      <c r="X24" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC24" t="s">
         <v>285</v>
       </c>
-      <c r="P24" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>235</v>
-      </c>
-      <c r="R24" t="s">
-        <v>386</v>
-      </c>
-      <c r="S24" t="s">
-        <v>252</v>
-      </c>
-      <c r="T24" t="s">
-        <v>269</v>
-      </c>
-      <c r="U24" t="s">
-        <v>405</v>
-      </c>
-      <c r="V24" t="s">
-        <v>227</v>
-      </c>
-      <c r="W24" t="s">
-        <v>418</v>
-      </c>
-      <c r="X24" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>228</v>
-      </c>
       <c r="AD24" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="AE24" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="AF24" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="AG24" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="AH24" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="AI24" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="AJ24" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="AK24" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="AL24" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="AM24" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="AN24" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="AO24" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="AP24" t="n">
         <v>129.0</v>
@@ -26857,132 +27277,135 @@
         <v>178.0</v>
       </c>
       <c r="CB24" t="s">
-        <v>507</v>
+        <v>175</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="E25" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="F25" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="G25" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="H25" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="I25" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="J25" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="K25" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="L25" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="M25" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="N25" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="O25" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="P25" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="Q25" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="R25" t="s">
+        <v>153</v>
+      </c>
+      <c r="S25" t="s">
+        <v>438</v>
+      </c>
+      <c r="T25" t="s">
+        <v>329</v>
+      </c>
+      <c r="U25" t="s">
+        <v>324</v>
+      </c>
+      <c r="V25" t="s">
+        <v>150</v>
+      </c>
+      <c r="W25" t="s">
+        <v>462</v>
+      </c>
+      <c r="X25" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE25" t="s">
         <v>152</v>
       </c>
-      <c r="S25" t="s">
-        <v>394</v>
-      </c>
-      <c r="T25" t="s">
-        <v>276</v>
-      </c>
-      <c r="U25" t="s">
-        <v>270</v>
-      </c>
-      <c r="V25" t="s">
-        <v>149</v>
-      </c>
-      <c r="W25" t="s">
-        <v>419</v>
-      </c>
-      <c r="X25" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>394</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>151</v>
-      </c>
       <c r="AF25" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="AG25" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="AH25" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="AI25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ25" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="AK25" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="AL25" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="AM25" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="AN25" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="AO25" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="AP25" t="n">
         <v>169.0</v>
@@ -27099,132 +27522,135 @@
         <v>364.0</v>
       </c>
       <c r="CB25" t="s">
-        <v>204</v>
+        <v>241</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="O26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Q26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="R26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="S26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="T26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="U26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="V26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="W26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="Z26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AA26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AB26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AC26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AD26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AE26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AF26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AH26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AI26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AJ26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AK26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AL26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AO26" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AP26" t="n">
         <v>5394.0</v>
@@ -27341,132 +27767,135 @@
         <v>6322.0</v>
       </c>
       <c r="CB26" t="s">
-        <v>508</v>
+        <v>547</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="H27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Q27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="R27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="S27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="T27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="U27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="V27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="W27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="X27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Z27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AA27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AB27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AC27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AD27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AE27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AH27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AI27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AJ27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AK27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AO27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AP27"/>
       <c r="AQ27"/>
@@ -27507,132 +27936,135 @@
       <c r="BZ27"/>
       <c r="CA27"/>
       <c r="CB27" t="s">
-        <v>209</v>
+        <v>269</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="H28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Q28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="R28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="S28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="T28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="U28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="V28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="W28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Z28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AA28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AB28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AC28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AD28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AE28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AH28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AI28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AJ28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AK28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AN28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AO28" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AP28"/>
       <c r="AQ28"/>
@@ -27673,132 +28105,135 @@
       <c r="BZ28"/>
       <c r="CA28"/>
       <c r="CB28" t="s">
-        <v>209</v>
+        <v>269</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="H29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Q29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="R29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="S29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="T29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="U29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="V29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="W29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="X29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Y29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Z29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AA29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AB29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AC29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AD29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AE29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AH29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AI29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AJ29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AK29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AO29" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AP29"/>
       <c r="AQ29"/>
@@ -27839,132 +28274,135 @@
       <c r="BZ29"/>
       <c r="CA29"/>
       <c r="CB29" t="s">
-        <v>209</v>
+        <v>269</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="H30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Q30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="R30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="S30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="T30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="U30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="V30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="W30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="X30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Y30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Z30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AA30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AB30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AC30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AD30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AE30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AH30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AI30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AJ30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AK30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AO30" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AP30"/>
       <c r="AQ30"/>
@@ -28005,132 +28443,135 @@
       <c r="BZ30"/>
       <c r="CA30"/>
       <c r="CB30" t="s">
-        <v>209</v>
+        <v>269</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="F31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="H31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Q31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="R31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="S31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="T31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="U31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="V31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="W31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="X31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Y31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Z31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AA31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AB31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AC31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AD31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AE31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AF31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AH31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AI31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AJ31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AK31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AM31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AN31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AO31" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AP31"/>
       <c r="AQ31"/>
@@ -28171,132 +28612,135 @@
       <c r="BZ31"/>
       <c r="CA31"/>
       <c r="CB31" t="s">
-        <v>209</v>
+        <v>269</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="H32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="I32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="O32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Q32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="R32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="T32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="U32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="V32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="W32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="X32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Y32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Z32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AA32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AB32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AC32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AD32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AE32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AF32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AH32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AI32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AJ32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AK32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AN32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AO32" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AP32"/>
       <c r="AQ32"/>
@@ -28337,7 +28781,10 @@
       <c r="BZ32"/>
       <c r="CA32"/>
       <c r="CB32" t="s">
-        <v>209</v>
+        <v>269</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp_cap.xlsx
+++ b/original-sources/DSHS_tsa_hosp_cap.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="556">
-  <si>
-    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="557">
+  <si>
+    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -299,6 +299,9 @@
     <t>2020-07-10</t>
   </si>
   <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -572,7 +575,7 @@
     <t>10698</t>
   </si>
   <si>
-    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
+    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>38</t>
@@ -683,7 +686,7 @@
     <t>940</t>
   </si>
   <si>
-    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
+    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>680</t>
@@ -821,7 +824,7 @@
     <t>46943</t>
   </si>
   <si>
-    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
+    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t/>
@@ -2085,13 +2088,16 @@
       <c r="CN3" t="s" s="10">
         <v>93</v>
       </c>
+      <c r="CO3" t="s" s="10">
+        <v>94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
         <v>613.0</v>
@@ -2358,18 +2364,21 @@
         <v>352.0</v>
       </c>
       <c r="CM4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CN4" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>421.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" t="n">
         <v>613.0</v>
@@ -2636,18 +2645,21 @@
         <v>335.0</v>
       </c>
       <c r="CM5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CN5" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>330.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" t="n">
         <v>348.0</v>
@@ -2914,18 +2926,21 @@
         <v>218.0</v>
       </c>
       <c r="CM6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CN6" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="n">
         <v>479.0</v>
@@ -3192,18 +3207,21 @@
         <v>475.0</v>
       </c>
       <c r="CM7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CN7" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>391.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="n">
         <v>5095.0</v>
@@ -3470,18 +3488,21 @@
         <v>2451.0</v>
       </c>
       <c r="CM8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CN8" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>2507.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" t="n">
         <v>261.0</v>
@@ -3748,18 +3769,21 @@
         <v>803.0</v>
       </c>
       <c r="CM9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CN9" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>805.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" t="n">
         <v>714.0</v>
@@ -4026,18 +4050,21 @@
         <v>509.0</v>
       </c>
       <c r="CM10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CN10" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>482.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="n">
         <v>257.0</v>
@@ -4304,18 +4331,21 @@
         <v>169.0</v>
       </c>
       <c r="CM11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CN11" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" t="n">
         <v>702.0</v>
@@ -4582,18 +4612,21 @@
         <v>381.0</v>
       </c>
       <c r="CM12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CN12" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="n">
         <v>732.0</v>
@@ -4860,18 +4893,21 @@
         <v>547.0</v>
       </c>
       <c r="CM13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CN13" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>487.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" t="n">
         <v>284.0</v>
@@ -5138,18 +5174,21 @@
         <v>142.0</v>
       </c>
       <c r="CM14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CN14" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="n">
         <v>663.0</v>
@@ -5416,18 +5455,21 @@
         <v>231.0</v>
       </c>
       <c r="CM15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CN15" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" t="n">
         <v>363.0</v>
@@ -5694,18 +5736,21 @@
         <v>205.0</v>
       </c>
       <c r="CM16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CN16" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" t="n">
         <v>278.0</v>
@@ -5972,18 +6017,21 @@
         <v>181.0</v>
       </c>
       <c r="CM17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CN17" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" t="n">
         <v>1408.0</v>
@@ -6250,18 +6298,21 @@
         <v>693.0</v>
       </c>
       <c r="CM18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CN18" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>638.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" t="n">
         <v>2488.0</v>
@@ -6528,18 +6579,21 @@
         <v>720.0</v>
       </c>
       <c r="CM19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CN19" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" t="n">
         <v>4062.0</v>
@@ -6806,18 +6860,21 @@
         <v>1868.0</v>
       </c>
       <c r="CM20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CN20" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>1810.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" t="n">
         <v>572.0</v>
@@ -7084,18 +7141,21 @@
         <v>355.0</v>
       </c>
       <c r="CM21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CN21" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="n">
         <v>277.0</v>
@@ -7362,18 +7422,21 @@
         <v>134.0</v>
       </c>
       <c r="CM22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CN22" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
@@ -7640,18 +7703,21 @@
         <v>65.0</v>
       </c>
       <c r="CM23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CN23" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" t="n">
         <v>360.0</v>
@@ -7918,18 +7984,21 @@
         <v>317.0</v>
       </c>
       <c r="CM24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CN24" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>353.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" t="n">
         <v>881.0</v>
@@ -8196,18 +8265,21 @@
         <v>424.0</v>
       </c>
       <c r="CM25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CN25" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" t="n">
         <v>21550.0</v>
@@ -8474,11 +8546,12 @@
         <v>11575.0</v>
       </c>
       <c r="CM26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CN26" t="s">
-        <v>184</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="CO26"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8495,7 +8568,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2">
@@ -8780,13 +8853,16 @@
       <c r="CN3" t="s" s="10">
         <v>93</v>
       </c>
+      <c r="CO3" t="s" s="10">
+        <v>94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
         <v>77.0</v>
@@ -9053,18 +9129,21 @@
         <v>37.0</v>
       </c>
       <c r="CM4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CN4" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" t="n">
         <v>93.0</v>
@@ -9331,18 +9410,21 @@
         <v>16.0</v>
       </c>
       <c r="CM5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CN5" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -9609,18 +9691,21 @@
         <v>14.0</v>
       </c>
       <c r="CM6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CN6" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="n">
         <v>36.0</v>
@@ -9887,18 +9972,21 @@
         <v>23.0</v>
       </c>
       <c r="CM7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CN7" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="n">
         <v>623.0</v>
@@ -10165,18 +10253,21 @@
         <v>296.0</v>
       </c>
       <c r="CM8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CN8" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" t="n">
         <v>36.0</v>
@@ -10443,18 +10534,21 @@
         <v>100.0</v>
       </c>
       <c r="CM9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CN9" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" t="n">
         <v>103.0</v>
@@ -10721,18 +10815,21 @@
         <v>90.0</v>
       </c>
       <c r="CM10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CN10" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="n">
         <v>35.0</v>
@@ -10999,18 +11096,21 @@
         <v>10.0</v>
       </c>
       <c r="CM11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CN11" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" t="n">
         <v>73.0</v>
@@ -11277,18 +11377,21 @@
         <v>33.0</v>
       </c>
       <c r="CM12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CN12" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="n">
         <v>42.0</v>
@@ -11555,18 +11658,21 @@
         <v>27.0</v>
       </c>
       <c r="CM13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CN13" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -11833,18 +11939,21 @@
         <v>9.0</v>
       </c>
       <c r="CM14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CN14" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="n">
         <v>56.0</v>
@@ -12111,18 +12220,21 @@
         <v>13.0</v>
       </c>
       <c r="CM15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CN15" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" t="n">
         <v>26.0</v>
@@ -12389,18 +12501,21 @@
         <v>7.0</v>
       </c>
       <c r="CM16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CN16" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" t="n">
         <v>15.0</v>
@@ -12667,18 +12782,21 @@
         <v>12.0</v>
       </c>
       <c r="CM17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CN17" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" t="n">
         <v>144.0</v>
@@ -12945,18 +13063,21 @@
         <v>59.0</v>
       </c>
       <c r="CM18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CN18" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" t="n">
         <v>351.0</v>
@@ -13223,18 +13344,21 @@
         <v>96.0</v>
       </c>
       <c r="CM19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CN19" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" t="n">
         <v>403.0</v>
@@ -13501,18 +13625,21 @@
         <v>128.0</v>
       </c>
       <c r="CM20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CN20" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" t="n">
         <v>48.0</v>
@@ -13779,18 +13906,21 @@
         <v>1.0</v>
       </c>
       <c r="CM21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CN21" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="n">
         <v>30.0</v>
@@ -14057,18 +14187,21 @@
         <v>13.0</v>
       </c>
       <c r="CM22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CN22" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -14335,18 +14468,21 @@
         <v>5.0</v>
       </c>
       <c r="CM23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CN23" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" t="n">
         <v>21.0</v>
@@ -14613,18 +14749,21 @@
         <v>3.0</v>
       </c>
       <c r="CM24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CN24" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" t="n">
         <v>108.0</v>
@@ -14891,18 +15030,21 @@
         <v>25.0</v>
       </c>
       <c r="CM25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CN25" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" t="n">
         <v>2368.0</v>
@@ -15169,11 +15311,12 @@
         <v>1017.0</v>
       </c>
       <c r="CM26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CN26" t="s">
-        <v>221</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="CO26"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -15190,7 +15333,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
@@ -15475,13 +15618,16 @@
       <c r="CN3" t="s" s="10">
         <v>93</v>
       </c>
+      <c r="CO3" t="s" s="10">
+        <v>94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
         <v>417.0</v>
@@ -15748,18 +15894,21 @@
         <v>653.0</v>
       </c>
       <c r="CM4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CN4" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>711.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" t="n">
         <v>755.0</v>
@@ -16026,18 +16175,21 @@
         <v>933.0</v>
       </c>
       <c r="CM5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="CN5" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>1065.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" t="n">
         <v>240.0</v>
@@ -16304,18 +16456,21 @@
         <v>335.0</v>
       </c>
       <c r="CM6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CN6" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="n">
         <v>214.0</v>
@@ -16582,18 +16737,21 @@
         <v>521.0</v>
       </c>
       <c r="CM7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CN7" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>452.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="n">
         <v>7347.0</v>
@@ -16860,18 +17018,21 @@
         <v>11769.0</v>
       </c>
       <c r="CM8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CN8" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>12162.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" t="n">
         <v>421.0</v>
@@ -17138,18 +17299,21 @@
         <v>563.0</v>
       </c>
       <c r="CM9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CN9" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>620.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" t="n">
         <v>921.0</v>
@@ -17416,18 +17580,21 @@
         <v>1532.0</v>
       </c>
       <c r="CM10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CN10" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>1527.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="n">
         <v>190.0</v>
@@ -17694,18 +17861,21 @@
         <v>347.0</v>
       </c>
       <c r="CM11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CN11" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>353.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" t="n">
         <v>328.0</v>
@@ -17972,18 +18142,21 @@
         <v>1471.0</v>
       </c>
       <c r="CM12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CN12" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>1464.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="n">
         <v>663.0</v>
@@ -18250,18 +18423,21 @@
         <v>611.0</v>
       </c>
       <c r="CM13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CN13" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>796.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" t="n">
         <v>208.0</v>
@@ -18528,18 +18704,21 @@
         <v>260.0</v>
       </c>
       <c r="CM14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CN14" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="n">
         <v>434.0</v>
@@ -18806,18 +18985,21 @@
         <v>792.0</v>
       </c>
       <c r="CM15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CN15" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>823.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" t="n">
         <v>262.0</v>
@@ -19084,18 +19266,21 @@
         <v>363.0</v>
       </c>
       <c r="CM16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CN16" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" t="n">
         <v>234.0</v>
@@ -19362,18 +19547,21 @@
         <v>328.0</v>
       </c>
       <c r="CM17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CN17" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>352.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" t="n">
         <v>1059.0</v>
@@ -19640,18 +19828,21 @@
         <v>2599.0</v>
       </c>
       <c r="CM18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CN18" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>2774.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" t="n">
         <v>3398.0</v>
@@ -19918,18 +20109,21 @@
         <v>4552.0</v>
       </c>
       <c r="CM19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CN19" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>4638.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" t="n">
         <v>6949.0</v>
@@ -20196,18 +20390,21 @@
         <v>11230.0</v>
       </c>
       <c r="CM20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CN20" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>11565.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" t="n">
         <v>867.0</v>
@@ -20474,18 +20671,21 @@
         <v>1551.0</v>
       </c>
       <c r="CM21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CN21" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>1569.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="n">
         <v>254.0</v>
@@ -20752,18 +20952,21 @@
         <v>409.0</v>
       </c>
       <c r="CM22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CN22" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" t="n">
         <v>255.0</v>
@@ -21030,18 +21233,21 @@
         <v>376.0</v>
       </c>
       <c r="CM23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CN23" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" t="n">
         <v>785.0</v>
@@ -21308,18 +21514,21 @@
         <v>1079.0</v>
       </c>
       <c r="CM24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CN24" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>1173.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" t="n">
         <v>1219.0</v>
@@ -21586,18 +21795,21 @@
         <v>2742.0</v>
       </c>
       <c r="CM25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CN25" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>2521.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" t="n">
         <v>27420.0</v>
@@ -21864,11 +22076,12 @@
         <v>45016.0</v>
       </c>
       <c r="CM26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CN26" t="s">
-        <v>267</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="CO26"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -21885,7 +22098,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -22137,130 +22350,133 @@
       <c r="CC3" t="s" s="10">
         <v>93</v>
       </c>
+      <c r="CD3" t="s" s="10">
+        <v>94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="U4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AC4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AD4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AE4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AI4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AK4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AP4" t="n">
         <v>92.0</v>
@@ -22377,135 +22593,138 @@
         <v>108.0</v>
       </c>
       <c r="CB4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="CC4" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" t="s">
+        <v>350</v>
+      </c>
+      <c r="J5" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" t="s">
+        <v>382</v>
+      </c>
+      <c r="M5" t="s">
+        <v>287</v>
+      </c>
+      <c r="N5" t="s">
+        <v>326</v>
+      </c>
+      <c r="O5" t="s">
+        <v>402</v>
+      </c>
+      <c r="P5" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>419</v>
+      </c>
+      <c r="R5" t="s">
+        <v>426</v>
+      </c>
+      <c r="S5" t="s">
+        <v>432</v>
+      </c>
+      <c r="T5" t="s">
+        <v>440</v>
+      </c>
+      <c r="U5" t="s">
+        <v>444</v>
+      </c>
+      <c r="V5" t="s">
+        <v>451</v>
+      </c>
+      <c r="W5" t="s">
+        <v>451</v>
+      </c>
+      <c r="X5" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>464</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL5" t="s">
         <v>302</v>
       </c>
-      <c r="F5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" t="s">
-        <v>326</v>
-      </c>
-      <c r="H5" t="s">
-        <v>337</v>
-      </c>
-      <c r="I5" t="s">
-        <v>349</v>
-      </c>
-      <c r="J5" t="s">
-        <v>337</v>
-      </c>
-      <c r="K5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" t="s">
-        <v>381</v>
-      </c>
-      <c r="M5" t="s">
-        <v>286</v>
-      </c>
-      <c r="N5" t="s">
-        <v>325</v>
-      </c>
-      <c r="O5" t="s">
-        <v>401</v>
-      </c>
-      <c r="P5" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>418</v>
-      </c>
-      <c r="R5" t="s">
-        <v>425</v>
-      </c>
-      <c r="S5" t="s">
-        <v>431</v>
-      </c>
-      <c r="T5" t="s">
-        <v>439</v>
-      </c>
-      <c r="U5" t="s">
-        <v>443</v>
-      </c>
-      <c r="V5" t="s">
-        <v>450</v>
-      </c>
-      <c r="W5" t="s">
-        <v>450</v>
-      </c>
-      <c r="X5" t="s">
-        <v>463</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>348</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>509</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>509</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>407</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>301</v>
-      </c>
       <c r="AM5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AP5" t="n">
         <v>100.0</v>
@@ -22622,135 +22841,138 @@
         <v>152.0</v>
       </c>
       <c r="CB5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="CC5" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>351</v>
+      </c>
+      <c r="J6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N6" t="s">
+        <v>214</v>
+      </c>
+      <c r="O6" t="s">
+        <v>190</v>
+      </c>
+      <c r="P6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>304</v>
+      </c>
+      <c r="R6" t="s">
+        <v>188</v>
+      </c>
+      <c r="S6" t="s">
+        <v>197</v>
+      </c>
+      <c r="T6" t="s">
+        <v>196</v>
+      </c>
+      <c r="U6" t="s">
+        <v>196</v>
+      </c>
+      <c r="V6" t="s">
+        <v>304</v>
+      </c>
+      <c r="W6" t="s">
+        <v>188</v>
+      </c>
+      <c r="X6" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y6" t="s">
         <v>189</v>
       </c>
-      <c r="G6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" t="s">
-        <v>350</v>
-      </c>
-      <c r="J6" t="s">
-        <v>206</v>
-      </c>
-      <c r="K6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L6" t="s">
-        <v>204</v>
-      </c>
-      <c r="M6" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" t="s">
-        <v>189</v>
-      </c>
-      <c r="P6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>303</v>
-      </c>
-      <c r="R6" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="Z6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN6" t="s">
         <v>196</v>
       </c>
-      <c r="T6" t="s">
-        <v>195</v>
-      </c>
-      <c r="U6" t="s">
-        <v>195</v>
-      </c>
-      <c r="V6" t="s">
-        <v>303</v>
-      </c>
-      <c r="W6" t="s">
-        <v>187</v>
-      </c>
-      <c r="X6" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AO6" t="s">
         <v>196</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>195</v>
       </c>
       <c r="AP6" t="n">
         <v>24.0</v>
@@ -22867,135 +23089,138 @@
         <v>32.0</v>
       </c>
       <c r="CB6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="CC6" t="s">
-        <v>350</v>
+        <v>351</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" t="s">
+        <v>351</v>
+      </c>
+      <c r="N7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>198</v>
+      </c>
+      <c r="R7" t="s">
+        <v>331</v>
+      </c>
+      <c r="S7" t="s">
+        <v>351</v>
+      </c>
+      <c r="T7" t="s">
         <v>288</v>
       </c>
-      <c r="E7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" t="s">
-        <v>273</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="U7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V7" t="s">
+        <v>331</v>
+      </c>
+      <c r="W7" t="s">
+        <v>331</v>
+      </c>
+      <c r="X7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z7" t="s">
         <v>299</v>
       </c>
-      <c r="K7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M7" t="s">
-        <v>350</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="AA7" t="s">
         <v>197</v>
       </c>
-      <c r="O7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>197</v>
-      </c>
-      <c r="R7" t="s">
-        <v>330</v>
-      </c>
-      <c r="S7" t="s">
-        <v>350</v>
-      </c>
-      <c r="T7" t="s">
-        <v>287</v>
-      </c>
-      <c r="U7" t="s">
-        <v>294</v>
-      </c>
-      <c r="V7" t="s">
-        <v>330</v>
-      </c>
-      <c r="W7" t="s">
-        <v>330</v>
-      </c>
-      <c r="X7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>196</v>
-      </c>
       <c r="AB7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AJ7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP7" t="n">
         <v>31.0</v>
@@ -23112,135 +23337,138 @@
         <v>47.0</v>
       </c>
       <c r="CB7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="CC7" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="R8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="U8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="W8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="X8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Y8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AB8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AC8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AD8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AE8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AI8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AJ8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AK8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AP8" t="n">
         <v>1361.0</v>
@@ -23357,135 +23585,138 @@
         <v>1393.0</v>
       </c>
       <c r="CB8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="CC8" t="s">
-        <v>548</v>
+        <v>549</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>1398.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AB9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AC9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AE9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AJ9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP9" t="n">
         <v>49.0</v>
@@ -23602,135 +23833,138 @@
         <v>59.0</v>
       </c>
       <c r="CB9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CC9" t="s">
-        <v>549</v>
+        <v>550</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="W10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="X10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AC10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AD10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AH10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP10" t="n">
         <v>203.0</v>
@@ -23847,135 +24081,138 @@
         <v>227.0</v>
       </c>
       <c r="CB10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CC10" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>241.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="U11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AB11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AC11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AE11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AH11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP11" t="n">
         <v>45.0</v>
@@ -24092,135 +24329,138 @@
         <v>59.0</v>
       </c>
       <c r="CB11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CC11" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" t="s">
+        <v>342</v>
+      </c>
+      <c r="I12" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K12" t="s">
+        <v>375</v>
+      </c>
+      <c r="L12" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" t="s">
+        <v>390</v>
+      </c>
+      <c r="N12" t="s">
+        <v>396</v>
+      </c>
+      <c r="O12" t="s">
+        <v>390</v>
+      </c>
+      <c r="P12" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>421</v>
+      </c>
+      <c r="R12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" t="s">
+        <v>421</v>
+      </c>
+      <c r="T12" t="s">
         <v>153</v>
       </c>
-      <c r="D12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F12" t="s">
-        <v>319</v>
-      </c>
-      <c r="G12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="U12" t="s">
+        <v>365</v>
+      </c>
+      <c r="V12" t="s">
         <v>341</v>
       </c>
-      <c r="I12" t="s">
+      <c r="W12" t="s">
         <v>354</v>
       </c>
-      <c r="J12" t="s">
-        <v>364</v>
-      </c>
-      <c r="K12" t="s">
-        <v>374</v>
-      </c>
-      <c r="L12" t="s">
-        <v>174</v>
-      </c>
-      <c r="M12" t="s">
-        <v>389</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="X12" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y12" t="s">
         <v>395</v>
       </c>
-      <c r="O12" t="s">
-        <v>389</v>
-      </c>
-      <c r="P12" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>420</v>
-      </c>
-      <c r="R12" t="s">
-        <v>142</v>
-      </c>
-      <c r="S12" t="s">
-        <v>420</v>
-      </c>
-      <c r="T12" t="s">
-        <v>152</v>
-      </c>
-      <c r="U12" t="s">
-        <v>364</v>
-      </c>
-      <c r="V12" t="s">
-        <v>340</v>
-      </c>
-      <c r="W12" t="s">
-        <v>353</v>
-      </c>
-      <c r="X12" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>394</v>
-      </c>
       <c r="Z12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AB12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AD12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AE12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AH12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AI12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP12" t="n">
         <v>213.0</v>
@@ -24337,135 +24577,138 @@
         <v>233.0</v>
       </c>
       <c r="CB12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="CC12" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13" t="s">
+        <v>300</v>
+      </c>
+      <c r="R13" t="s">
+        <v>279</v>
+      </c>
+      <c r="S13" t="s">
+        <v>198</v>
+      </c>
+      <c r="T13" t="s">
+        <v>369</v>
+      </c>
+      <c r="U13" t="s">
+        <v>369</v>
+      </c>
+      <c r="V13" t="s">
+        <v>331</v>
+      </c>
+      <c r="W13" t="s">
+        <v>369</v>
+      </c>
+      <c r="X13" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF13" t="s">
         <v>299</v>
       </c>
-      <c r="R13" t="s">
-        <v>278</v>
-      </c>
-      <c r="S13" t="s">
-        <v>197</v>
-      </c>
-      <c r="T13" t="s">
-        <v>368</v>
-      </c>
-      <c r="U13" t="s">
-        <v>368</v>
-      </c>
-      <c r="V13" t="s">
-        <v>330</v>
-      </c>
-      <c r="W13" t="s">
-        <v>368</v>
-      </c>
-      <c r="X13" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>474</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>298</v>
-      </c>
       <c r="AG13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AI13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AJ13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP13" t="n">
         <v>49.0</v>
@@ -24582,135 +24825,138 @@
         <v>56.0</v>
       </c>
       <c r="CB13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CC13" t="s">
-        <v>413</v>
+        <v>414</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" t="s">
         <v>220</v>
       </c>
-      <c r="G14" t="s">
-        <v>219</v>
-      </c>
       <c r="H14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" t="s">
+        <v>189</v>
+      </c>
+      <c r="O14" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>413</v>
+      </c>
+      <c r="R14" t="s">
+        <v>205</v>
+      </c>
+      <c r="S14" t="s">
+        <v>280</v>
+      </c>
+      <c r="T14" t="s">
+        <v>215</v>
+      </c>
+      <c r="U14" t="s">
+        <v>328</v>
+      </c>
+      <c r="V14" t="s">
+        <v>280</v>
+      </c>
+      <c r="W14" t="s">
+        <v>413</v>
+      </c>
+      <c r="X14" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM14" t="s">
         <v>214</v>
       </c>
-      <c r="I14" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" t="s">
-        <v>279</v>
-      </c>
-      <c r="K14" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" t="s">
-        <v>279</v>
-      </c>
-      <c r="M14" t="s">
-        <v>204</v>
-      </c>
-      <c r="N14" t="s">
-        <v>188</v>
-      </c>
-      <c r="O14" t="s">
-        <v>188</v>
-      </c>
-      <c r="P14" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>412</v>
-      </c>
-      <c r="R14" t="s">
-        <v>204</v>
-      </c>
-      <c r="S14" t="s">
-        <v>279</v>
-      </c>
-      <c r="T14" t="s">
-        <v>214</v>
-      </c>
-      <c r="U14" t="s">
-        <v>327</v>
-      </c>
-      <c r="V14" t="s">
-        <v>279</v>
-      </c>
-      <c r="W14" t="s">
-        <v>412</v>
-      </c>
-      <c r="X14" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>412</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>412</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>213</v>
-      </c>
       <c r="AN14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP14" t="n">
         <v>15.0</v>
@@ -24827,135 +25073,138 @@
         <v>20.0</v>
       </c>
       <c r="CB14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CC14" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="W15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="X15" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>489</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG15" t="s">
         <v>408</v>
       </c>
-      <c r="Y15" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>484</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>496</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>507</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>407</v>
-      </c>
       <c r="AH15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AI15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AJ15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AK15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP15" t="n">
         <v>129.0</v>
@@ -25072,135 +25321,138 @@
         <v>144.0</v>
       </c>
       <c r="CB15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="CC15" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L16" t="s">
+        <v>289</v>
+      </c>
+      <c r="M16" t="s">
+        <v>331</v>
+      </c>
+      <c r="N16" t="s">
+        <v>216</v>
+      </c>
+      <c r="O16" t="s">
+        <v>351</v>
+      </c>
+      <c r="P16" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R16" t="s">
+        <v>289</v>
+      </c>
+      <c r="S16" t="s">
+        <v>289</v>
+      </c>
+      <c r="T16" t="s">
+        <v>209</v>
+      </c>
+      <c r="U16" t="s">
+        <v>209</v>
+      </c>
+      <c r="V16" t="s">
+        <v>289</v>
+      </c>
+      <c r="W16" t="s">
+        <v>274</v>
+      </c>
+      <c r="X16" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL16" t="s">
         <v>288</v>
       </c>
-      <c r="M16" t="s">
-        <v>330</v>
-      </c>
-      <c r="N16" t="s">
-        <v>215</v>
-      </c>
-      <c r="O16" t="s">
-        <v>350</v>
-      </c>
-      <c r="P16" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>278</v>
-      </c>
-      <c r="R16" t="s">
-        <v>288</v>
-      </c>
-      <c r="S16" t="s">
-        <v>288</v>
-      </c>
-      <c r="T16" t="s">
-        <v>208</v>
-      </c>
-      <c r="U16" t="s">
-        <v>208</v>
-      </c>
-      <c r="V16" t="s">
-        <v>288</v>
-      </c>
-      <c r="W16" t="s">
-        <v>273</v>
-      </c>
-      <c r="X16" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>445</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>390</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>287</v>
-      </c>
       <c r="AM16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP16" t="n">
         <v>46.0</v>
@@ -25317,135 +25569,138 @@
         <v>59.0</v>
       </c>
       <c r="CB16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="CC16" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" t="s">
+        <v>190</v>
+      </c>
+      <c r="N17" t="s">
+        <v>220</v>
+      </c>
+      <c r="O17" t="s">
+        <v>198</v>
+      </c>
+      <c r="P17" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>369</v>
+      </c>
+      <c r="R17" t="s">
+        <v>216</v>
+      </c>
+      <c r="S17" t="s">
+        <v>205</v>
+      </c>
+      <c r="T17" t="s">
+        <v>288</v>
+      </c>
+      <c r="U17" t="s">
+        <v>288</v>
+      </c>
+      <c r="V17" t="s">
+        <v>197</v>
+      </c>
+      <c r="W17" t="s">
+        <v>197</v>
+      </c>
+      <c r="X17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF17" t="s">
         <v>189</v>
       </c>
-      <c r="E17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" t="s">
-        <v>332</v>
-      </c>
-      <c r="H17" t="s">
-        <v>215</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="AG17" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM17" t="s">
         <v>196</v>
       </c>
-      <c r="J17" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" t="s">
-        <v>209</v>
-      </c>
-      <c r="M17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s">
-        <v>219</v>
-      </c>
-      <c r="O17" t="s">
-        <v>197</v>
-      </c>
-      <c r="P17" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>368</v>
-      </c>
-      <c r="R17" t="s">
-        <v>215</v>
-      </c>
-      <c r="S17" t="s">
-        <v>204</v>
-      </c>
-      <c r="T17" t="s">
-        <v>287</v>
-      </c>
-      <c r="U17" t="s">
-        <v>287</v>
-      </c>
-      <c r="V17" t="s">
-        <v>196</v>
-      </c>
-      <c r="W17" t="s">
-        <v>196</v>
-      </c>
-      <c r="X17" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>195</v>
-      </c>
       <c r="AN17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP17" t="n">
         <v>22.0</v>
@@ -25562,135 +25817,138 @@
         <v>36.0</v>
       </c>
       <c r="CB17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CC17" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" t="s">
+        <v>344</v>
+      </c>
+      <c r="I18" t="s">
+        <v>356</v>
+      </c>
+      <c r="J18" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" t="s">
+        <v>377</v>
+      </c>
+      <c r="L18" t="s">
+        <v>385</v>
+      </c>
+      <c r="M18" t="s">
+        <v>367</v>
+      </c>
+      <c r="N18" t="s">
+        <v>390</v>
+      </c>
+      <c r="O18" t="s">
+        <v>405</v>
+      </c>
+      <c r="P18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>423</v>
+      </c>
+      <c r="R18" t="s">
+        <v>428</v>
+      </c>
+      <c r="S18" t="s">
+        <v>371</v>
+      </c>
+      <c r="T18" t="s">
+        <v>151</v>
+      </c>
+      <c r="U18" t="s">
+        <v>447</v>
+      </c>
+      <c r="V18" t="s">
+        <v>454</v>
+      </c>
+      <c r="W18" t="s">
+        <v>459</v>
+      </c>
+      <c r="X18" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF18" t="s">
         <v>320</v>
       </c>
-      <c r="G18" t="s">
-        <v>333</v>
-      </c>
-      <c r="H18" t="s">
-        <v>343</v>
-      </c>
-      <c r="I18" t="s">
-        <v>355</v>
-      </c>
-      <c r="J18" t="s">
-        <v>366</v>
-      </c>
-      <c r="K18" t="s">
-        <v>376</v>
-      </c>
-      <c r="L18" t="s">
-        <v>384</v>
-      </c>
-      <c r="M18" t="s">
-        <v>366</v>
-      </c>
-      <c r="N18" t="s">
-        <v>389</v>
-      </c>
-      <c r="O18" t="s">
-        <v>404</v>
-      </c>
-      <c r="P18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>422</v>
-      </c>
-      <c r="R18" t="s">
-        <v>427</v>
-      </c>
-      <c r="S18" t="s">
-        <v>370</v>
-      </c>
-      <c r="T18" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" t="s">
-        <v>446</v>
-      </c>
-      <c r="V18" t="s">
-        <v>453</v>
-      </c>
-      <c r="W18" t="s">
-        <v>458</v>
-      </c>
-      <c r="X18" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>471</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>493</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>319</v>
-      </c>
       <c r="AG18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AH18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AI18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AJ18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AK18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AP18" t="n">
         <v>269.0</v>
@@ -25807,135 +26065,138 @@
         <v>383.0</v>
       </c>
       <c r="CB18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="CC18" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R19" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="S19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T19" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="U19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="W19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="X19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y19" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z19" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AA19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AB19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AD19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AE19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF19" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AI19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL19" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO19" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AP19" t="n">
         <v>465.0</v>
@@ -26052,135 +26313,138 @@
         <v>606.0</v>
       </c>
       <c r="CB19" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="CC19" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>629.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="S20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="U20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="V20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="X20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA20" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AB20" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AC20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AD20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AE20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG20" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AH20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AI20" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AJ20" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AK20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO20" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AP20" t="n">
         <v>1695.0</v>
@@ -26297,135 +26561,138 @@
         <v>1803.0</v>
       </c>
       <c r="CB20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CC20" t="s">
-        <v>553</v>
+        <v>554</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1848.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="U21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AB21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AC21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AE21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AH21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP21" t="n">
         <v>198.0</v>
@@ -26542,135 +26809,138 @@
         <v>226.0</v>
       </c>
       <c r="CB21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="CC21" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>223.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AE22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AH22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP22" t="n">
         <v>38.0</v>
@@ -26787,135 +27057,138 @@
         <v>61.0</v>
       </c>
       <c r="CB22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="CC22" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" t="s">
+        <v>300</v>
+      </c>
+      <c r="G23" t="s">
+        <v>300</v>
+      </c>
+      <c r="H23" t="s">
+        <v>318</v>
+      </c>
+      <c r="I23" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" t="s">
+        <v>370</v>
+      </c>
+      <c r="K23" t="s">
+        <v>380</v>
+      </c>
+      <c r="L23" t="s">
+        <v>380</v>
+      </c>
+      <c r="M23" t="s">
+        <v>274</v>
+      </c>
+      <c r="N23" t="s">
+        <v>391</v>
+      </c>
+      <c r="O23" t="s">
+        <v>370</v>
+      </c>
+      <c r="P23" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>306</v>
+      </c>
+      <c r="R23" t="s">
+        <v>306</v>
+      </c>
+      <c r="S23" t="s">
+        <v>363</v>
+      </c>
+      <c r="T23" t="s">
+        <v>313</v>
+      </c>
+      <c r="U23" t="s">
+        <v>370</v>
+      </c>
+      <c r="V23" t="s">
+        <v>284</v>
+      </c>
+      <c r="W23" t="s">
         <v>299</v>
       </c>
-      <c r="E23" t="s">
-        <v>312</v>
-      </c>
-      <c r="F23" t="s">
-        <v>299</v>
-      </c>
-      <c r="G23" t="s">
-        <v>299</v>
-      </c>
-      <c r="H23" t="s">
-        <v>317</v>
-      </c>
-      <c r="I23" t="s">
-        <v>358</v>
-      </c>
-      <c r="J23" t="s">
-        <v>369</v>
-      </c>
-      <c r="K23" t="s">
-        <v>379</v>
-      </c>
-      <c r="L23" t="s">
-        <v>379</v>
-      </c>
-      <c r="M23" t="s">
-        <v>273</v>
-      </c>
-      <c r="N23" t="s">
-        <v>390</v>
-      </c>
-      <c r="O23" t="s">
-        <v>369</v>
-      </c>
-      <c r="P23" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>305</v>
-      </c>
-      <c r="R23" t="s">
-        <v>305</v>
-      </c>
-      <c r="S23" t="s">
-        <v>362</v>
-      </c>
-      <c r="T23" t="s">
-        <v>312</v>
-      </c>
-      <c r="U23" t="s">
-        <v>369</v>
-      </c>
-      <c r="V23" t="s">
-        <v>283</v>
-      </c>
-      <c r="W23" t="s">
-        <v>298</v>
-      </c>
       <c r="X23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y23" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AD23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AE23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL23" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP23" t="n">
         <v>52.0</v>
@@ -27032,135 +27305,138 @@
         <v>76.0</v>
       </c>
       <c r="CB23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="CC23" t="s">
-        <v>554</v>
+        <v>555</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O24" t="s">
+        <v>338</v>
+      </c>
+      <c r="P24" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>293</v>
+      </c>
+      <c r="R24" t="s">
+        <v>431</v>
+      </c>
+      <c r="S24" t="s">
+        <v>308</v>
+      </c>
+      <c r="T24" t="s">
+        <v>324</v>
+      </c>
+      <c r="U24" t="s">
+        <v>450</v>
+      </c>
+      <c r="V24" t="s">
+        <v>285</v>
+      </c>
+      <c r="W24" t="s">
+        <v>462</v>
+      </c>
+      <c r="X24" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE24" t="s">
         <v>381</v>
       </c>
-      <c r="O24" t="s">
-        <v>337</v>
-      </c>
-      <c r="P24" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>292</v>
-      </c>
-      <c r="R24" t="s">
-        <v>430</v>
-      </c>
-      <c r="S24" t="s">
-        <v>307</v>
-      </c>
-      <c r="T24" t="s">
-        <v>323</v>
-      </c>
-      <c r="U24" t="s">
-        <v>449</v>
-      </c>
-      <c r="V24" t="s">
-        <v>284</v>
-      </c>
-      <c r="W24" t="s">
-        <v>461</v>
-      </c>
-      <c r="X24" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>490</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AF24" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>514</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>450</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>514</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>462</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO24" t="s">
         <v>285</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>449</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>461</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>461</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>530</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>461</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>284</v>
       </c>
       <c r="AP24" t="n">
         <v>129.0</v>
@@ -27277,135 +27553,138 @@
         <v>178.0</v>
       </c>
       <c r="CB24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CC24" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I25" t="s">
+        <v>361</v>
+      </c>
+      <c r="J25" t="s">
+        <v>371</v>
+      </c>
+      <c r="K25" t="s">
+        <v>381</v>
+      </c>
+      <c r="L25" t="s">
+        <v>388</v>
+      </c>
+      <c r="M25" t="s">
+        <v>371</v>
+      </c>
+      <c r="N25" t="s">
+        <v>400</v>
+      </c>
+      <c r="O25" t="s">
+        <v>407</v>
+      </c>
+      <c r="P25" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>425</v>
+      </c>
+      <c r="R25" t="s">
+        <v>154</v>
+      </c>
+      <c r="S25" t="s">
+        <v>439</v>
+      </c>
+      <c r="T25" t="s">
+        <v>330</v>
+      </c>
+      <c r="U25" t="s">
+        <v>325</v>
+      </c>
+      <c r="V25" t="s">
+        <v>151</v>
+      </c>
+      <c r="W25" t="s">
+        <v>463</v>
+      </c>
+      <c r="X25" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>360</v>
       </c>
-      <c r="J25" t="s">
-        <v>370</v>
-      </c>
-      <c r="K25" t="s">
-        <v>380</v>
-      </c>
-      <c r="L25" t="s">
-        <v>387</v>
-      </c>
-      <c r="M25" t="s">
-        <v>370</v>
-      </c>
-      <c r="N25" t="s">
-        <v>399</v>
-      </c>
-      <c r="O25" t="s">
-        <v>406</v>
-      </c>
-      <c r="P25" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>424</v>
-      </c>
-      <c r="R25" t="s">
-        <v>153</v>
-      </c>
-      <c r="S25" t="s">
-        <v>438</v>
-      </c>
-      <c r="T25" t="s">
-        <v>329</v>
-      </c>
-      <c r="U25" t="s">
-        <v>324</v>
-      </c>
-      <c r="V25" t="s">
-        <v>150</v>
-      </c>
-      <c r="W25" t="s">
-        <v>462</v>
-      </c>
-      <c r="X25" t="s">
-        <v>468</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>468</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>470</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>493</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>424</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>359</v>
-      </c>
       <c r="AK25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM25" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO25" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AP25" t="n">
         <v>169.0</v>
@@ -27522,135 +27801,138 @@
         <v>364.0</v>
       </c>
       <c r="CB25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CC25" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>319.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="U26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AB26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AC26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AE26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AH26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP26" t="n">
         <v>5394.0</v>
@@ -27767,135 +28049,136 @@
         <v>6322.0</v>
       </c>
       <c r="CB26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CC26" t="s">
-        <v>555</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="CD26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP27"/>
       <c r="AQ27"/>
@@ -27936,135 +28219,136 @@
       <c r="BZ27"/>
       <c r="CA27"/>
       <c r="CB27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CC27" t="s">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="CD27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP28"/>
       <c r="AQ28"/>
@@ -28105,135 +28389,136 @@
       <c r="BZ28"/>
       <c r="CA28"/>
       <c r="CB28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CC28" t="s">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="CD28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP29"/>
       <c r="AQ29"/>
@@ -28274,135 +28559,136 @@
       <c r="BZ29"/>
       <c r="CA29"/>
       <c r="CB29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CC29" t="s">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="CD29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP30"/>
       <c r="AQ30"/>
@@ -28443,135 +28729,136 @@
       <c r="BZ30"/>
       <c r="CA30"/>
       <c r="CB30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CC30" t="s">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="CD30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP31"/>
       <c r="AQ31"/>
@@ -28612,135 +28899,136 @@
       <c r="BZ31"/>
       <c r="CA31"/>
       <c r="CB31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CC31" t="s">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="CD31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" t="s">
         <v>270</v>
       </c>
-      <c r="B32" t="s">
-        <v>269</v>
-      </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="X32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP32"/>
       <c r="AQ32"/>
@@ -28781,11 +29069,12 @@
       <c r="BZ32"/>
       <c r="CA32"/>
       <c r="CB32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CC32" t="s">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="CD32"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp_cap.xlsx
+++ b/original-sources/DSHS_tsa_hosp_cap.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="460">
-  <si>
-    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/13/20 at 9:30 AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="461">
+  <si>
+    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -308,6 +308,9 @@
     <t>2020-07-13</t>
   </si>
   <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -446,13 +449,13 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/13/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/13/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/13/20 at 9:30 AM CST</t>
+    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t/>
@@ -1806,13 +1809,16 @@
       <c r="CQ3" t="s" s="10">
         <v>96</v>
       </c>
+      <c r="CR3" t="s" s="10">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
         <v>613.0</v>
@@ -2092,14 +2098,17 @@
       </c>
       <c r="CQ4" t="n">
         <v>358.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>382.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="n">
         <v>613.0</v>
@@ -2379,14 +2388,17 @@
       </c>
       <c r="CQ5" t="n">
         <v>345.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>328.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
         <v>348.0</v>
@@ -2665,15 +2677,18 @@
         <v>239.0</v>
       </c>
       <c r="CQ6" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="CR6" t="n">
         <v>248.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
         <v>479.0</v>
@@ -2953,14 +2968,17 @@
       </c>
       <c r="CQ7" t="n">
         <v>451.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>460.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
         <v>5095.0</v>
@@ -3240,14 +3258,17 @@
       </c>
       <c r="CQ8" t="n">
         <v>2587.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>2595.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
         <v>261.0</v>
@@ -3527,14 +3548,17 @@
       </c>
       <c r="CQ9" t="n">
         <v>804.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>788.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n">
         <v>714.0</v>
@@ -3814,14 +3838,17 @@
       </c>
       <c r="CQ10" t="n">
         <v>543.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>533.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>257.0</v>
@@ -4101,14 +4128,17 @@
       </c>
       <c r="CQ11" t="n">
         <v>182.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="n">
         <v>702.0</v>
@@ -4388,14 +4418,17 @@
       </c>
       <c r="CQ12" t="n">
         <v>417.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>390.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
         <v>732.0</v>
@@ -4675,14 +4708,17 @@
       </c>
       <c r="CQ13" t="n">
         <v>521.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>516.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
         <v>284.0</v>
@@ -4962,14 +4998,17 @@
       </c>
       <c r="CQ14" t="n">
         <v>170.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
         <v>663.0</v>
@@ -5249,14 +5288,17 @@
       </c>
       <c r="CQ15" t="n">
         <v>264.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
         <v>363.0</v>
@@ -5536,14 +5578,17 @@
       </c>
       <c r="CQ16" t="n">
         <v>229.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
         <v>278.0</v>
@@ -5823,14 +5868,17 @@
       </c>
       <c r="CQ17" t="n">
         <v>192.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
         <v>1408.0</v>
@@ -6110,14 +6158,17 @@
       </c>
       <c r="CQ18" t="n">
         <v>717.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>655.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n">
         <v>2488.0</v>
@@ -6397,14 +6448,17 @@
       </c>
       <c r="CQ19" t="n">
         <v>626.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>617.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="n">
         <v>4062.0</v>
@@ -6684,14 +6738,17 @@
       </c>
       <c r="CQ20" t="n">
         <v>2166.0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>1860.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="n">
         <v>572.0</v>
@@ -6971,14 +7028,17 @@
       </c>
       <c r="CQ21" t="n">
         <v>265.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="n">
         <v>277.0</v>
@@ -7258,14 +7318,17 @@
       </c>
       <c r="CQ22" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
@@ -7545,14 +7608,17 @@
       </c>
       <c r="CQ23" t="n">
         <v>95.0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
         <v>360.0</v>
@@ -7832,14 +7898,17 @@
       </c>
       <c r="CQ24" t="n">
         <v>355.0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
         <v>881.0</v>
@@ -8119,14 +8188,17 @@
       </c>
       <c r="CQ25" t="n">
         <v>440.0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>374.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n">
         <v>21550.0</v>
@@ -8406,6 +8478,9 @@
       </c>
       <c r="CQ26" t="n">
         <v>12066.0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>11402.0</v>
       </c>
     </row>
   </sheetData>
@@ -8423,7 +8498,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -8717,13 +8792,16 @@
       <c r="CQ3" t="s" s="10">
         <v>96</v>
       </c>
+      <c r="CR3" t="s" s="10">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
         <v>77.0</v>
@@ -9003,14 +9081,17 @@
       </c>
       <c r="CQ4" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="n">
         <v>93.0</v>
@@ -9290,14 +9371,17 @@
       </c>
       <c r="CQ5" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -9577,14 +9661,17 @@
       </c>
       <c r="CQ6" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
         <v>36.0</v>
@@ -9864,14 +9951,17 @@
       </c>
       <c r="CQ7" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
         <v>623.0</v>
@@ -10151,14 +10241,17 @@
       </c>
       <c r="CQ8" t="n">
         <v>288.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
         <v>36.0</v>
@@ -10438,14 +10531,17 @@
       </c>
       <c r="CQ9" t="n">
         <v>92.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n">
         <v>103.0</v>
@@ -10725,14 +10821,17 @@
       </c>
       <c r="CQ10" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>35.0</v>
@@ -11011,15 +11110,18 @@
         <v>12.0</v>
       </c>
       <c r="CQ11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CR11" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="n">
         <v>73.0</v>
@@ -11299,14 +11401,17 @@
       </c>
       <c r="CQ12" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
         <v>42.0</v>
@@ -11586,14 +11691,17 @@
       </c>
       <c r="CQ13" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -11872,15 +11980,18 @@
         <v>13.0</v>
       </c>
       <c r="CQ14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CR14" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
         <v>56.0</v>
@@ -12160,14 +12271,17 @@
       </c>
       <c r="CQ15" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
         <v>26.0</v>
@@ -12447,14 +12561,17 @@
       </c>
       <c r="CQ16" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
         <v>15.0</v>
@@ -12734,14 +12851,17 @@
       </c>
       <c r="CQ17" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
         <v>144.0</v>
@@ -13021,14 +13141,17 @@
       </c>
       <c r="CQ18" t="n">
         <v>78.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n">
         <v>351.0</v>
@@ -13308,14 +13431,17 @@
       </c>
       <c r="CQ19" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="n">
         <v>403.0</v>
@@ -13595,14 +13721,17 @@
       </c>
       <c r="CQ20" t="n">
         <v>95.0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="n">
         <v>48.0</v>
@@ -13882,14 +14011,17 @@
       </c>
       <c r="CQ21" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="n">
         <v>30.0</v>
@@ -14169,14 +14301,17 @@
       </c>
       <c r="CQ22" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -14455,15 +14590,18 @@
         <v>7.0</v>
       </c>
       <c r="CQ23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CR23" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
         <v>21.0</v>
@@ -14742,15 +14880,18 @@
         <v>4.0</v>
       </c>
       <c r="CQ24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR24" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
         <v>108.0</v>
@@ -15030,14 +15171,17 @@
       </c>
       <c r="CQ25" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n">
         <v>2368.0</v>
@@ -15317,6 +15461,9 @@
       </c>
       <c r="CQ26" t="n">
         <v>984.0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>949.0</v>
       </c>
     </row>
   </sheetData>
@@ -15334,7 +15481,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -15628,13 +15775,16 @@
       <c r="CQ3" t="s" s="10">
         <v>96</v>
       </c>
+      <c r="CR3" t="s" s="10">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
         <v>417.0</v>
@@ -15914,14 +16064,17 @@
       </c>
       <c r="CQ4" t="n">
         <v>613.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>663.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="n">
         <v>755.0</v>
@@ -16201,14 +16354,17 @@
       </c>
       <c r="CQ5" t="n">
         <v>948.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>1006.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
         <v>240.0</v>
@@ -16488,14 +16644,17 @@
       </c>
       <c r="CQ6" t="n">
         <v>299.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>316.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
         <v>214.0</v>
@@ -16775,14 +16934,17 @@
       </c>
       <c r="CQ7" t="n">
         <v>489.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>519.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
         <v>7347.0</v>
@@ -17062,14 +17224,17 @@
       </c>
       <c r="CQ8" t="n">
         <v>11501.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>11464.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
         <v>421.0</v>
@@ -17349,14 +17514,17 @@
       </c>
       <c r="CQ9" t="n">
         <v>534.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>589.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n">
         <v>921.0</v>
@@ -17636,14 +17804,17 @@
       </c>
       <c r="CQ10" t="n">
         <v>1349.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1467.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>190.0</v>
@@ -17923,14 +18094,17 @@
       </c>
       <c r="CQ11" t="n">
         <v>311.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>327.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="n">
         <v>328.0</v>
@@ -18210,14 +18384,17 @@
       </c>
       <c r="CQ12" t="n">
         <v>1412.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>1377.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
         <v>663.0</v>
@@ -18497,14 +18674,17 @@
       </c>
       <c r="CQ13" t="n">
         <v>751.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>626.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
         <v>208.0</v>
@@ -18784,14 +18964,17 @@
       </c>
       <c r="CQ14" t="n">
         <v>243.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>227.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
         <v>434.0</v>
@@ -19071,14 +19254,17 @@
       </c>
       <c r="CQ15" t="n">
         <v>797.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>868.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
         <v>262.0</v>
@@ -19358,14 +19544,17 @@
       </c>
       <c r="CQ16" t="n">
         <v>403.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
         <v>234.0</v>
@@ -19645,14 +19834,17 @@
       </c>
       <c r="CQ17" t="n">
         <v>320.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>330.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
         <v>1059.0</v>
@@ -19932,14 +20124,17 @@
       </c>
       <c r="CQ18" t="n">
         <v>2470.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>2406.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n">
         <v>3398.0</v>
@@ -20219,14 +20414,17 @@
       </c>
       <c r="CQ19" t="n">
         <v>4372.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>4444.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="n">
         <v>6949.0</v>
@@ -20506,14 +20704,17 @@
       </c>
       <c r="CQ20" t="n">
         <v>10751.0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>11036.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="n">
         <v>867.0</v>
@@ -20793,14 +20994,17 @@
       </c>
       <c r="CQ21" t="n">
         <v>1427.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>1292.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="n">
         <v>254.0</v>
@@ -21080,14 +21284,17 @@
       </c>
       <c r="CQ22" t="n">
         <v>401.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="n">
         <v>255.0</v>
@@ -21367,14 +21574,17 @@
       </c>
       <c r="CQ23" t="n">
         <v>360.0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>369.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
         <v>785.0</v>
@@ -21654,14 +21864,17 @@
       </c>
       <c r="CQ24" t="n">
         <v>1131.0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>1134.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
         <v>1219.0</v>
@@ -21941,14 +22154,17 @@
       </c>
       <c r="CQ25" t="n">
         <v>2684.0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>2366.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n">
         <v>27420.0</v>
@@ -22228,6 +22444,9 @@
       </c>
       <c r="CQ26" t="n">
         <v>43566.0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>43615.0</v>
       </c>
     </row>
   </sheetData>
@@ -22245,7 +22464,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -22506,130 +22725,133 @@
       <c r="CF3" t="s" s="10">
         <v>96</v>
       </c>
+      <c r="CG3" t="s" s="10">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y4" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM4" t="s">
         <v>361</v>
       </c>
-      <c r="Z4" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>361</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>395</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>339</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>395</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>361</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>360</v>
-      </c>
       <c r="AN4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AP4" t="n">
         <v>92.0</v>
@@ -22759,131 +22981,134 @@
       </c>
       <c r="CF4" t="n">
         <v>101.0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" t="s">
+        <v>281</v>
+      </c>
+      <c r="M5" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O5" t="s">
+        <v>306</v>
+      </c>
+      <c r="P5" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>325</v>
+      </c>
+      <c r="R5" t="s">
+        <v>333</v>
+      </c>
+      <c r="S5" t="s">
+        <v>340</v>
+      </c>
+      <c r="T5" t="s">
+        <v>348</v>
+      </c>
+      <c r="U5" t="s">
+        <v>354</v>
+      </c>
+      <c r="V5" t="s">
+        <v>362</v>
+      </c>
+      <c r="W5" t="s">
+        <v>362</v>
+      </c>
+      <c r="X5" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL5" t="s">
         <v>188</v>
       </c>
-      <c r="F5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" t="s">
-        <v>230</v>
-      </c>
-      <c r="K5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" t="s">
-        <v>280</v>
-      </c>
-      <c r="M5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N5" t="s">
-        <v>216</v>
-      </c>
-      <c r="O5" t="s">
-        <v>305</v>
-      </c>
-      <c r="P5" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>324</v>
-      </c>
-      <c r="R5" t="s">
-        <v>332</v>
-      </c>
-      <c r="S5" t="s">
-        <v>339</v>
-      </c>
-      <c r="T5" t="s">
-        <v>347</v>
-      </c>
-      <c r="U5" t="s">
-        <v>353</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="AM5" t="s">
         <v>361</v>
       </c>
-      <c r="W5" t="s">
-        <v>361</v>
-      </c>
-      <c r="X5" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>395</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>360</v>
-      </c>
       <c r="AN5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP5" t="n">
         <v>100.0</v>
@@ -23013,131 +23238,134 @@
       </c>
       <c r="CF5" t="n">
         <v>156.0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AD6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AE6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AH6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AO6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AP6" t="n">
         <v>24.0</v>
@@ -23267,131 +23495,134 @@
       </c>
       <c r="CF6" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N7" t="s">
+        <v>296</v>
+      </c>
+      <c r="O7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>296</v>
+      </c>
+      <c r="R7" t="s">
+        <v>223</v>
+      </c>
+      <c r="S7" t="s">
+        <v>246</v>
+      </c>
+      <c r="T7" t="s">
         <v>171</v>
       </c>
-      <c r="E7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="U7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V7" t="s">
+        <v>223</v>
+      </c>
+      <c r="W7" t="s">
+        <v>223</v>
+      </c>
+      <c r="X7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z7" t="s">
         <v>185</v>
       </c>
-      <c r="K7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M7" t="s">
-        <v>245</v>
-      </c>
-      <c r="N7" t="s">
-        <v>295</v>
-      </c>
-      <c r="O7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>295</v>
-      </c>
-      <c r="R7" t="s">
-        <v>222</v>
-      </c>
-      <c r="S7" t="s">
-        <v>245</v>
-      </c>
-      <c r="T7" t="s">
-        <v>170</v>
-      </c>
-      <c r="U7" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" t="s">
-        <v>222</v>
-      </c>
-      <c r="W7" t="s">
-        <v>222</v>
-      </c>
-      <c r="X7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>184</v>
-      </c>
       <c r="AA7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AB7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AD7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AE7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AH7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP7" t="n">
         <v>31.0</v>
@@ -23521,131 +23752,134 @@
       </c>
       <c r="CF7" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="V8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="W8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="X8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AB8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AC8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AD8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AE8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AH8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AI8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AP8" t="n">
         <v>1361.0</v>
@@ -23775,131 +24009,134 @@
       </c>
       <c r="CF8" t="n">
         <v>1375.0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>1389.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AH9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AK9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AP9" t="n">
         <v>49.0</v>
@@ -24029,131 +24266,134 @@
       </c>
       <c r="CF9" t="n">
         <v>71.0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="U10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="W10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AB10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AH10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AI10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AP10" t="n">
         <v>203.0</v>
@@ -24283,131 +24523,134 @@
       </c>
       <c r="CF10" t="n">
         <v>233.0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AC11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AE11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AH11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP11" t="n">
         <v>45.0</v>
@@ -24536,132 +24779,135 @@
         <v>57.0</v>
       </c>
       <c r="CF11" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CG11" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M12" t="s">
+        <v>291</v>
+      </c>
+      <c r="N12" t="s">
+        <v>299</v>
+      </c>
+      <c r="O12" t="s">
+        <v>291</v>
+      </c>
+      <c r="P12" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>327</v>
+      </c>
+      <c r="R12" t="s">
+        <v>334</v>
+      </c>
+      <c r="S12" t="s">
+        <v>327</v>
+      </c>
+      <c r="T12" t="s">
+        <v>350</v>
+      </c>
+      <c r="U12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V12" t="s">
         <v>234</v>
       </c>
-      <c r="I12" t="s">
+      <c r="W12" t="s">
         <v>249</v>
       </c>
-      <c r="J12" t="s">
-        <v>261</v>
-      </c>
-      <c r="K12" t="s">
-        <v>272</v>
-      </c>
-      <c r="L12" t="s">
-        <v>283</v>
-      </c>
-      <c r="M12" t="s">
-        <v>290</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="X12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y12" t="s">
         <v>298</v>
       </c>
-      <c r="O12" t="s">
-        <v>290</v>
-      </c>
-      <c r="P12" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>326</v>
-      </c>
-      <c r="R12" t="s">
-        <v>333</v>
-      </c>
-      <c r="S12" t="s">
-        <v>326</v>
-      </c>
-      <c r="T12" t="s">
-        <v>349</v>
-      </c>
-      <c r="U12" t="s">
-        <v>261</v>
-      </c>
-      <c r="V12" t="s">
-        <v>233</v>
-      </c>
-      <c r="W12" t="s">
-        <v>248</v>
-      </c>
-      <c r="X12" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>297</v>
-      </c>
       <c r="Z12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AB12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AD12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AH12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AI12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AJ12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP12" t="n">
         <v>213.0</v>
@@ -24791,131 +25037,134 @@
       </c>
       <c r="CF12" t="n">
         <v>230.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" t="s">
         <v>160</v>
       </c>
-      <c r="G13" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" t="s">
+        <v>292</v>
+      </c>
+      <c r="N13" t="s">
+        <v>166</v>
+      </c>
+      <c r="O13" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>186</v>
+      </c>
+      <c r="R13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" t="s">
+        <v>296</v>
+      </c>
+      <c r="T13" t="s">
+        <v>267</v>
+      </c>
+      <c r="U13" t="s">
+        <v>267</v>
+      </c>
+      <c r="V13" t="s">
+        <v>223</v>
+      </c>
+      <c r="W13" t="s">
+        <v>267</v>
+      </c>
+      <c r="X13" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>160</v>
       </c>
-      <c r="K13" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s">
-        <v>209</v>
-      </c>
-      <c r="M13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N13" t="s">
-        <v>165</v>
-      </c>
-      <c r="O13" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>185</v>
-      </c>
-      <c r="R13" t="s">
-        <v>157</v>
-      </c>
-      <c r="S13" t="s">
-        <v>295</v>
-      </c>
-      <c r="T13" t="s">
-        <v>266</v>
-      </c>
-      <c r="U13" t="s">
-        <v>266</v>
-      </c>
-      <c r="V13" t="s">
-        <v>222</v>
-      </c>
-      <c r="W13" t="s">
-        <v>266</v>
-      </c>
-      <c r="X13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AK13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL13" t="s">
         <v>166</v>
       </c>
-      <c r="AB13" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG13" t="s">
+      <c r="AM13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN13" t="s">
         <v>166</v>
       </c>
-      <c r="AH13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>165</v>
-      </c>
       <c r="AO13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP13" t="n">
         <v>49.0</v>
@@ -25045,131 +25294,134 @@
       </c>
       <c r="CF13" t="n">
         <v>56.0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AE14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP14" t="n">
         <v>15.0</v>
@@ -25299,131 +25551,134 @@
       </c>
       <c r="CF14" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="W15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="X15" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG15" t="s">
         <v>313</v>
       </c>
-      <c r="Y15" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>312</v>
-      </c>
       <c r="AH15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AI15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP15" t="n">
         <v>129.0</v>
@@ -25553,131 +25808,134 @@
       </c>
       <c r="CF15" t="n">
         <v>145.0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="s">
+        <v>223</v>
+      </c>
+      <c r="N16" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" t="s">
+        <v>246</v>
+      </c>
+      <c r="P16" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>158</v>
+      </c>
+      <c r="R16" t="s">
+        <v>172</v>
+      </c>
+      <c r="S16" t="s">
+        <v>172</v>
+      </c>
+      <c r="T16" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" t="s">
+        <v>167</v>
+      </c>
+      <c r="V16" t="s">
+        <v>172</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD16" t="s">
         <v>160</v>
       </c>
-      <c r="D16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" t="s">
-        <v>204</v>
-      </c>
-      <c r="J16" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="AE16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL16" t="s">
         <v>171</v>
       </c>
-      <c r="M16" t="s">
-        <v>222</v>
-      </c>
-      <c r="N16" t="s">
-        <v>237</v>
-      </c>
-      <c r="O16" t="s">
-        <v>245</v>
-      </c>
-      <c r="P16" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R16" t="s">
-        <v>171</v>
-      </c>
-      <c r="S16" t="s">
-        <v>171</v>
-      </c>
-      <c r="T16" t="s">
-        <v>166</v>
-      </c>
-      <c r="U16" t="s">
-        <v>166</v>
-      </c>
-      <c r="V16" t="s">
-        <v>171</v>
-      </c>
-      <c r="W16" t="s">
-        <v>151</v>
-      </c>
-      <c r="X16" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>170</v>
-      </c>
       <c r="AM16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AP16" t="n">
         <v>46.0</v>
@@ -25807,131 +26065,134 @@
       </c>
       <c r="CF16" t="n">
         <v>49.0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>275</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="s">
+        <v>181</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>296</v>
+      </c>
+      <c r="P17" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>267</v>
+      </c>
+      <c r="R17" t="s">
+        <v>238</v>
+      </c>
+      <c r="S17" t="s">
+        <v>275</v>
+      </c>
+      <c r="T17" t="s">
+        <v>171</v>
+      </c>
+      <c r="U17" t="s">
+        <v>171</v>
+      </c>
+      <c r="V17" t="s">
+        <v>252</v>
+      </c>
+      <c r="W17" t="s">
+        <v>252</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE17" t="s">
         <v>161</v>
       </c>
-      <c r="D17" t="s">
+      <c r="AF17" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO17" t="s">
         <v>180</v>
-      </c>
-      <c r="E17" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" t="s">
-        <v>224</v>
-      </c>
-      <c r="H17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I17" t="s">
-        <v>251</v>
-      </c>
-      <c r="J17" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" t="s">
-        <v>274</v>
-      </c>
-      <c r="L17" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" t="s">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s">
-        <v>177</v>
-      </c>
-      <c r="O17" t="s">
-        <v>295</v>
-      </c>
-      <c r="P17" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>266</v>
-      </c>
-      <c r="R17" t="s">
-        <v>237</v>
-      </c>
-      <c r="S17" t="s">
-        <v>274</v>
-      </c>
-      <c r="T17" t="s">
-        <v>170</v>
-      </c>
-      <c r="U17" t="s">
-        <v>170</v>
-      </c>
-      <c r="V17" t="s">
-        <v>251</v>
-      </c>
-      <c r="W17" t="s">
-        <v>251</v>
-      </c>
-      <c r="X17" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>179</v>
       </c>
       <c r="AP17" t="n">
         <v>22.0</v>
@@ -26061,131 +26322,134 @@
       </c>
       <c r="CF17" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J18" t="s">
+        <v>264</v>
+      </c>
+      <c r="K18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L18" t="s">
+        <v>285</v>
+      </c>
+      <c r="M18" t="s">
+        <v>264</v>
+      </c>
+      <c r="N18" t="s">
+        <v>291</v>
+      </c>
+      <c r="O18" t="s">
+        <v>310</v>
+      </c>
+      <c r="P18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>329</v>
+      </c>
+      <c r="R18" t="s">
+        <v>336</v>
+      </c>
+      <c r="S18" t="s">
+        <v>269</v>
+      </c>
+      <c r="T18" t="s">
+        <v>352</v>
+      </c>
+      <c r="U18" t="s">
+        <v>357</v>
+      </c>
+      <c r="V18" t="s">
+        <v>366</v>
+      </c>
+      <c r="W18" t="s">
+        <v>372</v>
+      </c>
+      <c r="X18" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA18" t="s">
         <v>263</v>
       </c>
-      <c r="K18" t="s">
-        <v>275</v>
-      </c>
-      <c r="L18" t="s">
-        <v>284</v>
-      </c>
-      <c r="M18" t="s">
-        <v>263</v>
-      </c>
-      <c r="N18" t="s">
-        <v>290</v>
-      </c>
-      <c r="O18" t="s">
-        <v>309</v>
-      </c>
-      <c r="P18" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>328</v>
-      </c>
-      <c r="R18" t="s">
-        <v>335</v>
-      </c>
-      <c r="S18" t="s">
-        <v>268</v>
-      </c>
-      <c r="T18" t="s">
-        <v>351</v>
-      </c>
-      <c r="U18" t="s">
-        <v>356</v>
-      </c>
-      <c r="V18" t="s">
-        <v>365</v>
-      </c>
-      <c r="W18" t="s">
-        <v>371</v>
-      </c>
-      <c r="X18" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>262</v>
-      </c>
       <c r="AB18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AE18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AH18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AJ18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AP18" t="n">
         <v>269.0</v>
@@ -26315,131 +26579,134 @@
       </c>
       <c r="CF18" t="n">
         <v>373.0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>362.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AB19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AD19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AH19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO19" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP19" t="n">
         <v>465.0</v>
@@ -26569,131 +26836,134 @@
       </c>
       <c r="CF19" t="n">
         <v>643.0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>608.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="X20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AC20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AD20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AE20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AI20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP20" t="n">
         <v>1695.0</v>
@@ -26823,131 +27093,134 @@
       </c>
       <c r="CF20" t="n">
         <v>1836.0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>1818.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AC21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AE21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AH21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP21" t="n">
         <v>198.0</v>
@@ -27077,131 +27350,134 @@
       </c>
       <c r="CF21" t="n">
         <v>224.0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>227.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M22" t="s">
+        <v>161</v>
+      </c>
+      <c r="N22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" t="s">
         <v>160</v>
       </c>
-      <c r="N22" t="s">
-        <v>151</v>
-      </c>
-      <c r="O22" t="s">
-        <v>159</v>
-      </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AE22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AJ22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP22" t="n">
         <v>38.0</v>
@@ -27331,131 +27607,134 @@
       </c>
       <c r="CF22" t="n">
         <v>57.0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" t="s">
+        <v>268</v>
+      </c>
+      <c r="K23" t="s">
+        <v>279</v>
+      </c>
+      <c r="L23" t="s">
+        <v>279</v>
+      </c>
+      <c r="M23" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" t="s">
+        <v>292</v>
+      </c>
+      <c r="O23" t="s">
+        <v>268</v>
+      </c>
+      <c r="P23" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>192</v>
+      </c>
+      <c r="R23" t="s">
+        <v>192</v>
+      </c>
+      <c r="S23" t="s">
+        <v>260</v>
+      </c>
+      <c r="T23" t="s">
+        <v>200</v>
+      </c>
+      <c r="U23" t="s">
+        <v>268</v>
+      </c>
+      <c r="V23" t="s">
         <v>166</v>
       </c>
-      <c r="D23" t="s">
+      <c r="W23" t="s">
         <v>185</v>
       </c>
-      <c r="E23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" t="s">
-        <v>204</v>
-      </c>
-      <c r="I23" t="s">
-        <v>255</v>
-      </c>
-      <c r="J23" t="s">
-        <v>267</v>
-      </c>
-      <c r="K23" t="s">
-        <v>278</v>
-      </c>
-      <c r="L23" t="s">
-        <v>278</v>
-      </c>
-      <c r="M23" t="s">
-        <v>151</v>
-      </c>
-      <c r="N23" t="s">
-        <v>291</v>
-      </c>
-      <c r="O23" t="s">
-        <v>267</v>
-      </c>
-      <c r="P23" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>191</v>
-      </c>
-      <c r="R23" t="s">
-        <v>191</v>
-      </c>
-      <c r="S23" t="s">
-        <v>259</v>
-      </c>
-      <c r="T23" t="s">
-        <v>199</v>
-      </c>
-      <c r="U23" t="s">
-        <v>267</v>
-      </c>
-      <c r="V23" t="s">
-        <v>165</v>
-      </c>
-      <c r="W23" t="s">
-        <v>184</v>
-      </c>
       <c r="X23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AE23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AI23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AJ23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP23" t="n">
         <v>52.0</v>
@@ -27585,131 +27864,134 @@
       </c>
       <c r="CF23" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N24" t="s">
+        <v>281</v>
+      </c>
+      <c r="O24" t="s">
+        <v>231</v>
+      </c>
+      <c r="P24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>176</v>
+      </c>
+      <c r="R24" t="s">
+        <v>339</v>
+      </c>
+      <c r="S24" t="s">
+        <v>194</v>
+      </c>
+      <c r="T24" t="s">
+        <v>215</v>
+      </c>
+      <c r="U24" t="s">
+        <v>360</v>
+      </c>
+      <c r="V24" t="s">
+        <v>168</v>
+      </c>
+      <c r="W24" t="s">
+        <v>375</v>
+      </c>
+      <c r="X24" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE24" t="s">
         <v>280</v>
       </c>
-      <c r="O24" t="s">
-        <v>230</v>
-      </c>
-      <c r="P24" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>175</v>
-      </c>
-      <c r="R24" t="s">
-        <v>338</v>
-      </c>
-      <c r="S24" t="s">
-        <v>193</v>
-      </c>
-      <c r="T24" t="s">
-        <v>214</v>
-      </c>
-      <c r="U24" t="s">
-        <v>359</v>
-      </c>
-      <c r="V24" t="s">
-        <v>167</v>
-      </c>
-      <c r="W24" t="s">
-        <v>374</v>
-      </c>
-      <c r="X24" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AF24" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>447</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>375</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO24" t="s">
         <v>168</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>331</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>429</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>429</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>374</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>446</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>374</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>167</v>
       </c>
       <c r="AP24" t="n">
         <v>129.0</v>
@@ -27839,131 +28121,134 @@
       </c>
       <c r="CF24" t="n">
         <v>178.0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I25" t="s">
+        <v>258</v>
+      </c>
+      <c r="J25" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" t="s">
+        <v>280</v>
+      </c>
+      <c r="L25" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" t="s">
+        <v>269</v>
+      </c>
+      <c r="N25" t="s">
+        <v>304</v>
+      </c>
+      <c r="O25" t="s">
+        <v>312</v>
+      </c>
+      <c r="P25" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>332</v>
+      </c>
+      <c r="R25" t="s">
+        <v>157</v>
+      </c>
+      <c r="S25" t="s">
+        <v>347</v>
+      </c>
+      <c r="T25" t="s">
+        <v>222</v>
+      </c>
+      <c r="U25" t="s">
+        <v>216</v>
+      </c>
+      <c r="V25" t="s">
+        <v>352</v>
+      </c>
+      <c r="W25" t="s">
+        <v>376</v>
+      </c>
+      <c r="X25" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>257</v>
       </c>
-      <c r="J25" t="s">
-        <v>268</v>
-      </c>
-      <c r="K25" t="s">
-        <v>279</v>
-      </c>
-      <c r="L25" t="s">
-        <v>287</v>
-      </c>
-      <c r="M25" t="s">
-        <v>268</v>
-      </c>
-      <c r="N25" t="s">
-        <v>303</v>
-      </c>
-      <c r="O25" t="s">
-        <v>311</v>
-      </c>
-      <c r="P25" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>331</v>
-      </c>
-      <c r="R25" t="s">
-        <v>156</v>
-      </c>
-      <c r="S25" t="s">
-        <v>346</v>
-      </c>
-      <c r="T25" t="s">
-        <v>221</v>
-      </c>
-      <c r="U25" t="s">
-        <v>215</v>
-      </c>
-      <c r="V25" t="s">
-        <v>351</v>
-      </c>
-      <c r="W25" t="s">
-        <v>375</v>
-      </c>
-      <c r="X25" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>331</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>388</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>256</v>
-      </c>
       <c r="AK25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM25" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN25" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO25" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AP25" t="n">
         <v>169.0</v>
@@ -28093,131 +28378,134 @@
       </c>
       <c r="CF25" t="n">
         <v>379.0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>350.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AC26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AE26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AH26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP26" t="n">
         <v>5394.0</v>
@@ -28347,131 +28635,134 @@
       </c>
       <c r="CF26" t="n">
         <v>6370.0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>6334.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AP27"/>
       <c r="AQ27"/>
@@ -28516,130 +28807,131 @@
       <c r="CD27"/>
       <c r="CE27"/>
       <c r="CF27"/>
+      <c r="CG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AP28"/>
       <c r="AQ28"/>
@@ -28684,130 +28976,131 @@
       <c r="CD28"/>
       <c r="CE28"/>
       <c r="CF28"/>
+      <c r="CG28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AP29"/>
       <c r="AQ29"/>
@@ -28852,130 +29145,131 @@
       <c r="CD29"/>
       <c r="CE29"/>
       <c r="CF29"/>
+      <c r="CG29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AP30"/>
       <c r="AQ30"/>
@@ -29020,130 +29314,131 @@
       <c r="CD30"/>
       <c r="CE30"/>
       <c r="CF30"/>
+      <c r="CG30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AP31"/>
       <c r="AQ31"/>
@@ -29188,130 +29483,131 @@
       <c r="CD31"/>
       <c r="CE31"/>
       <c r="CF31"/>
+      <c r="CG31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="B32" t="s">
-        <v>146</v>
-      </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AP32"/>
       <c r="AQ32"/>
@@ -29356,6 +29652,7 @@
       <c r="CD32"/>
       <c r="CE32"/>
       <c r="CF32"/>
+      <c r="CG32"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp_cap.xlsx
+++ b/original-sources/DSHS_tsa_hosp_cap.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="461">
-  <si>
-    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="462">
+  <si>
+    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/15/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -311,6 +311,9 @@
     <t>2020-07-14</t>
   </si>
   <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -449,13 +452,13 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
+    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/15/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/15/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/15/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t/>
@@ -1812,13 +1815,16 @@
       <c r="CR3" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="CS3" t="s" s="10">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>613.0</v>
@@ -2101,14 +2107,17 @@
       </c>
       <c r="CR4" t="n">
         <v>382.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
         <v>613.0</v>
@@ -2391,14 +2400,17 @@
       </c>
       <c r="CR5" t="n">
         <v>328.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>322.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
         <v>348.0</v>
@@ -2681,14 +2693,17 @@
       </c>
       <c r="CR6" t="n">
         <v>248.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>479.0</v>
@@ -2971,14 +2986,17 @@
       </c>
       <c r="CR7" t="n">
         <v>460.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>405.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
         <v>5095.0</v>
@@ -3261,14 +3279,17 @@
       </c>
       <c r="CR8" t="n">
         <v>2595.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>2485.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n">
         <v>261.0</v>
@@ -3551,14 +3572,17 @@
       </c>
       <c r="CR9" t="n">
         <v>788.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>772.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
         <v>714.0</v>
@@ -3841,14 +3865,17 @@
       </c>
       <c r="CR10" t="n">
         <v>533.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>464.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="n">
         <v>257.0</v>
@@ -4131,14 +4158,17 @@
       </c>
       <c r="CR11" t="n">
         <v>174.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n">
         <v>702.0</v>
@@ -4421,14 +4451,17 @@
       </c>
       <c r="CR12" t="n">
         <v>390.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
         <v>732.0</v>
@@ -4711,14 +4744,17 @@
       </c>
       <c r="CR13" t="n">
         <v>516.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>449.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="n">
         <v>284.0</v>
@@ -5001,14 +5037,17 @@
       </c>
       <c r="CR14" t="n">
         <v>158.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
         <v>663.0</v>
@@ -5291,14 +5330,17 @@
       </c>
       <c r="CR15" t="n">
         <v>242.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="n">
         <v>363.0</v>
@@ -5581,14 +5623,17 @@
       </c>
       <c r="CR16" t="n">
         <v>240.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
         <v>278.0</v>
@@ -5871,14 +5916,17 @@
       </c>
       <c r="CR17" t="n">
         <v>160.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="n">
         <v>1408.0</v>
@@ -6161,14 +6209,17 @@
       </c>
       <c r="CR18" t="n">
         <v>655.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>609.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="n">
         <v>2488.0</v>
@@ -6451,14 +6502,17 @@
       </c>
       <c r="CR19" t="n">
         <v>617.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>612.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="n">
         <v>4062.0</v>
@@ -6741,14 +6795,17 @@
       </c>
       <c r="CR20" t="n">
         <v>1860.0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>1561.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="n">
         <v>572.0</v>
@@ -7030,15 +7087,18 @@
         <v>265.0</v>
       </c>
       <c r="CR21" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="CS21" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="n">
         <v>277.0</v>
@@ -7321,14 +7381,17 @@
       </c>
       <c r="CR22" t="n">
         <v>149.0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
@@ -7611,14 +7674,17 @@
       </c>
       <c r="CR23" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n">
         <v>360.0</v>
@@ -7901,14 +7967,17 @@
       </c>
       <c r="CR24" t="n">
         <v>292.0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n">
         <v>881.0</v>
@@ -8191,14 +8260,17 @@
       </c>
       <c r="CR25" t="n">
         <v>374.0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>339.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="n">
         <v>21550.0</v>
@@ -8481,6 +8553,9 @@
       </c>
       <c r="CR26" t="n">
         <v>11402.0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>10586.0</v>
       </c>
     </row>
   </sheetData>
@@ -8498,7 +8573,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -8795,13 +8870,16 @@
       <c r="CR3" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="CS3" t="s" s="10">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>77.0</v>
@@ -9084,14 +9162,17 @@
       </c>
       <c r="CR4" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
         <v>93.0</v>
@@ -9374,14 +9455,17 @@
       </c>
       <c r="CR5" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
         <v>20.0</v>
@@ -9664,14 +9748,17 @@
       </c>
       <c r="CR6" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>36.0</v>
@@ -9954,14 +10041,17 @@
       </c>
       <c r="CR7" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
         <v>623.0</v>
@@ -10244,14 +10334,17 @@
       </c>
       <c r="CR8" t="n">
         <v>290.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n">
         <v>36.0</v>
@@ -10534,14 +10627,17 @@
       </c>
       <c r="CR9" t="n">
         <v>94.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
         <v>103.0</v>
@@ -10824,14 +10920,17 @@
       </c>
       <c r="CR10" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="n">
         <v>35.0</v>
@@ -11114,14 +11213,17 @@
       </c>
       <c r="CR11" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n">
         <v>73.0</v>
@@ -11404,14 +11506,17 @@
       </c>
       <c r="CR12" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
         <v>42.0</v>
@@ -11694,14 +11799,17 @@
       </c>
       <c r="CR13" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="n">
         <v>13.0</v>
@@ -11983,15 +12091,18 @@
         <v>15.0</v>
       </c>
       <c r="CR14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CS14" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
         <v>56.0</v>
@@ -12274,14 +12385,17 @@
       </c>
       <c r="CR15" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="n">
         <v>26.0</v>
@@ -12564,14 +12678,17 @@
       </c>
       <c r="CR16" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
         <v>15.0</v>
@@ -12854,14 +12971,17 @@
       </c>
       <c r="CR17" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="n">
         <v>144.0</v>
@@ -13144,14 +13264,17 @@
       </c>
       <c r="CR18" t="n">
         <v>57.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="n">
         <v>351.0</v>
@@ -13434,14 +13557,17 @@
       </c>
       <c r="CR19" t="n">
         <v>81.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="n">
         <v>403.0</v>
@@ -13724,14 +13850,17 @@
       </c>
       <c r="CR20" t="n">
         <v>113.0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="n">
         <v>48.0</v>
@@ -14013,15 +14142,18 @@
         <v>3.0</v>
       </c>
       <c r="CR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="n">
         <v>30.0</v>
@@ -14304,14 +14436,17 @@
       </c>
       <c r="CR22" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>15.0</v>
@@ -14593,15 +14728,18 @@
         <v>5.0</v>
       </c>
       <c r="CR23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CS23" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n">
         <v>21.0</v>
@@ -14884,14 +15022,17 @@
       </c>
       <c r="CR24" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n">
         <v>108.0</v>
@@ -15174,14 +15315,17 @@
       </c>
       <c r="CR25" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="n">
         <v>2368.0</v>
@@ -15464,6 +15608,9 @@
       </c>
       <c r="CR26" t="n">
         <v>949.0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>853.0</v>
       </c>
     </row>
   </sheetData>
@@ -15481,7 +15628,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -15778,13 +15925,16 @@
       <c r="CR3" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="CS3" t="s" s="10">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>417.0</v>
@@ -16067,14 +16217,17 @@
       </c>
       <c r="CR4" t="n">
         <v>663.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>667.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
         <v>755.0</v>
@@ -16357,14 +16510,17 @@
       </c>
       <c r="CR5" t="n">
         <v>1006.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>1041.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
         <v>240.0</v>
@@ -16647,14 +16803,17 @@
       </c>
       <c r="CR6" t="n">
         <v>316.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>247.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>214.0</v>
@@ -16937,14 +17096,17 @@
       </c>
       <c r="CR7" t="n">
         <v>519.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>470.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
         <v>7347.0</v>
@@ -17227,14 +17389,17 @@
       </c>
       <c r="CR8" t="n">
         <v>11464.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>11980.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n">
         <v>421.0</v>
@@ -17517,14 +17682,17 @@
       </c>
       <c r="CR9" t="n">
         <v>589.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>624.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
         <v>921.0</v>
@@ -17807,14 +17975,17 @@
       </c>
       <c r="CR10" t="n">
         <v>1467.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>1595.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="n">
         <v>190.0</v>
@@ -18097,14 +18268,17 @@
       </c>
       <c r="CR11" t="n">
         <v>327.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n">
         <v>328.0</v>
@@ -18387,14 +18561,17 @@
       </c>
       <c r="CR12" t="n">
         <v>1377.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>1471.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
         <v>663.0</v>
@@ -18677,14 +18854,17 @@
       </c>
       <c r="CR13" t="n">
         <v>626.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>656.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="n">
         <v>208.0</v>
@@ -18967,14 +19147,17 @@
       </c>
       <c r="CR14" t="n">
         <v>227.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
         <v>434.0</v>
@@ -19257,14 +19440,17 @@
       </c>
       <c r="CR15" t="n">
         <v>868.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>805.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="n">
         <v>262.0</v>
@@ -19547,14 +19733,17 @@
       </c>
       <c r="CR16" t="n">
         <v>393.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>418.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
         <v>234.0</v>
@@ -19837,14 +20026,17 @@
       </c>
       <c r="CR17" t="n">
         <v>330.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="n">
         <v>1059.0</v>
@@ -20127,14 +20319,17 @@
       </c>
       <c r="CR18" t="n">
         <v>2406.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>2613.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="n">
         <v>3398.0</v>
@@ -20417,14 +20612,17 @@
       </c>
       <c r="CR19" t="n">
         <v>4444.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>4612.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="n">
         <v>6949.0</v>
@@ -20707,14 +20905,17 @@
       </c>
       <c r="CR20" t="n">
         <v>11036.0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>11321.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="n">
         <v>867.0</v>
@@ -20997,14 +21198,17 @@
       </c>
       <c r="CR21" t="n">
         <v>1292.0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>1566.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="n">
         <v>254.0</v>
@@ -21287,14 +21491,17 @@
       </c>
       <c r="CR22" t="n">
         <v>396.0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>395.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>255.0</v>
@@ -21577,14 +21784,17 @@
       </c>
       <c r="CR23" t="n">
         <v>369.0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>415.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n">
         <v>785.0</v>
@@ -21867,14 +22077,17 @@
       </c>
       <c r="CR24" t="n">
         <v>1134.0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>1172.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n">
         <v>1219.0</v>
@@ -22157,14 +22370,17 @@
       </c>
       <c r="CR25" t="n">
         <v>2366.0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>2535.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="n">
         <v>27420.0</v>
@@ -22447,6 +22663,9 @@
       </c>
       <c r="CR26" t="n">
         <v>43615.0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>45585.0</v>
       </c>
     </row>
   </sheetData>
@@ -22464,7 +22683,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
@@ -22728,130 +22947,133 @@
       <c r="CG3" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="CH3" t="s" s="10">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="X4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y4" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM4" t="s">
         <v>362</v>
       </c>
-      <c r="Z4" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>396</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>396</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>361</v>
-      </c>
       <c r="AN4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AP4" t="n">
         <v>92.0</v>
@@ -22984,131 +23206,134 @@
       </c>
       <c r="CG4" t="n">
         <v>108.0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" t="s">
+        <v>282</v>
+      </c>
+      <c r="M5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" t="s">
+        <v>307</v>
+      </c>
+      <c r="P5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>326</v>
+      </c>
+      <c r="R5" t="s">
+        <v>334</v>
+      </c>
+      <c r="S5" t="s">
+        <v>341</v>
+      </c>
+      <c r="T5" t="s">
+        <v>349</v>
+      </c>
+      <c r="U5" t="s">
+        <v>355</v>
+      </c>
+      <c r="V5" t="s">
+        <v>363</v>
+      </c>
+      <c r="W5" t="s">
+        <v>363</v>
+      </c>
+      <c r="X5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL5" t="s">
         <v>189</v>
       </c>
-      <c r="F5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" t="s">
-        <v>168</v>
-      </c>
-      <c r="L5" t="s">
-        <v>281</v>
-      </c>
-      <c r="M5" t="s">
-        <v>170</v>
-      </c>
-      <c r="N5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O5" t="s">
-        <v>306</v>
-      </c>
-      <c r="P5" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>325</v>
-      </c>
-      <c r="R5" t="s">
-        <v>333</v>
-      </c>
-      <c r="S5" t="s">
-        <v>340</v>
-      </c>
-      <c r="T5" t="s">
-        <v>348</v>
-      </c>
-      <c r="U5" t="s">
-        <v>354</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="AM5" t="s">
         <v>362</v>
       </c>
-      <c r="W5" t="s">
-        <v>362</v>
-      </c>
-      <c r="X5" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>313</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>361</v>
-      </c>
       <c r="AN5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AP5" t="n">
         <v>100.0</v>
@@ -23241,131 +23466,134 @@
       </c>
       <c r="CG5" t="n">
         <v>161.0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AH6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AJ6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AP6" t="n">
         <v>24.0</v>
@@ -23497,132 +23725,135 @@
         <v>27.0</v>
       </c>
       <c r="CG6" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CH6" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" t="s">
+        <v>247</v>
+      </c>
+      <c r="N7" t="s">
+        <v>297</v>
+      </c>
+      <c r="O7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>297</v>
+      </c>
+      <c r="R7" t="s">
+        <v>224</v>
+      </c>
+      <c r="S7" t="s">
+        <v>247</v>
+      </c>
+      <c r="T7" t="s">
         <v>172</v>
       </c>
-      <c r="E7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="U7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" t="s">
+        <v>224</v>
+      </c>
+      <c r="W7" t="s">
+        <v>224</v>
+      </c>
+      <c r="X7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z7" t="s">
         <v>186</v>
       </c>
-      <c r="K7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M7" t="s">
-        <v>246</v>
-      </c>
-      <c r="N7" t="s">
-        <v>296</v>
-      </c>
-      <c r="O7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>296</v>
-      </c>
-      <c r="R7" t="s">
-        <v>223</v>
-      </c>
-      <c r="S7" t="s">
-        <v>246</v>
-      </c>
-      <c r="T7" t="s">
-        <v>171</v>
-      </c>
-      <c r="U7" t="s">
-        <v>180</v>
-      </c>
-      <c r="V7" t="s">
-        <v>223</v>
-      </c>
-      <c r="W7" t="s">
-        <v>223</v>
-      </c>
-      <c r="X7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>185</v>
-      </c>
       <c r="AA7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AD7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AE7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AH7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AJ7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AP7" t="n">
         <v>31.0</v>
@@ -23755,131 +23986,134 @@
       </c>
       <c r="CG7" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="W8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AB8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AC8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AE8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AH8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AI8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AP8" t="n">
         <v>1361.0</v>
@@ -24012,131 +24246,134 @@
       </c>
       <c r="CG8" t="n">
         <v>1389.0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>1450.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AB9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AE9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AI9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AJ9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AP9" t="n">
         <v>49.0</v>
@@ -24269,131 +24506,134 @@
       </c>
       <c r="CG9" t="n">
         <v>65.0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="W10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AB10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AC10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AH10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AJ10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP10" t="n">
         <v>203.0</v>
@@ -24526,131 +24766,134 @@
       </c>
       <c r="CG10" t="n">
         <v>245.0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>259.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AB11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AD11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AP11" t="n">
         <v>45.0</v>
@@ -24783,131 +25026,134 @@
       </c>
       <c r="CG11" t="n">
         <v>55.0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M12" t="s">
+        <v>292</v>
+      </c>
+      <c r="N12" t="s">
+        <v>300</v>
+      </c>
+      <c r="O12" t="s">
+        <v>292</v>
+      </c>
+      <c r="P12" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>328</v>
+      </c>
+      <c r="R12" t="s">
+        <v>335</v>
+      </c>
+      <c r="S12" t="s">
+        <v>328</v>
+      </c>
+      <c r="T12" t="s">
+        <v>351</v>
+      </c>
+      <c r="U12" t="s">
+        <v>263</v>
+      </c>
+      <c r="V12" t="s">
         <v>235</v>
       </c>
-      <c r="I12" t="s">
+      <c r="W12" t="s">
         <v>250</v>
       </c>
-      <c r="J12" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L12" t="s">
-        <v>284</v>
-      </c>
-      <c r="M12" t="s">
-        <v>291</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="X12" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y12" t="s">
         <v>299</v>
       </c>
-      <c r="O12" t="s">
-        <v>291</v>
-      </c>
-      <c r="P12" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>327</v>
-      </c>
-      <c r="R12" t="s">
-        <v>334</v>
-      </c>
-      <c r="S12" t="s">
-        <v>327</v>
-      </c>
-      <c r="T12" t="s">
-        <v>350</v>
-      </c>
-      <c r="U12" t="s">
-        <v>262</v>
-      </c>
-      <c r="V12" t="s">
-        <v>234</v>
-      </c>
-      <c r="W12" t="s">
-        <v>249</v>
-      </c>
-      <c r="X12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>298</v>
-      </c>
       <c r="Z12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AB12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AH12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AP12" t="n">
         <v>213.0</v>
@@ -25040,131 +25286,134 @@
       </c>
       <c r="CG12" t="n">
         <v>231.0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" t="s">
         <v>161</v>
       </c>
-      <c r="G13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>211</v>
+      </c>
+      <c r="M13" t="s">
+        <v>293</v>
+      </c>
+      <c r="N13" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>187</v>
+      </c>
+      <c r="R13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" t="s">
+        <v>297</v>
+      </c>
+      <c r="T13" t="s">
+        <v>268</v>
+      </c>
+      <c r="U13" t="s">
+        <v>268</v>
+      </c>
+      <c r="V13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W13" t="s">
+        <v>268</v>
+      </c>
+      <c r="X13" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>161</v>
       </c>
-      <c r="K13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" t="s">
-        <v>292</v>
-      </c>
-      <c r="N13" t="s">
-        <v>166</v>
-      </c>
-      <c r="O13" t="s">
-        <v>177</v>
-      </c>
-      <c r="P13" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>186</v>
-      </c>
-      <c r="R13" t="s">
-        <v>158</v>
-      </c>
-      <c r="S13" t="s">
-        <v>296</v>
-      </c>
-      <c r="T13" t="s">
-        <v>267</v>
-      </c>
-      <c r="U13" t="s">
-        <v>267</v>
-      </c>
-      <c r="V13" t="s">
-        <v>223</v>
-      </c>
-      <c r="W13" t="s">
-        <v>267</v>
-      </c>
-      <c r="X13" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AK13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL13" t="s">
         <v>167</v>
       </c>
-      <c r="AB13" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG13" t="s">
+      <c r="AM13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN13" t="s">
         <v>167</v>
       </c>
-      <c r="AH13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>166</v>
-      </c>
       <c r="AO13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP13" t="n">
         <v>49.0</v>
@@ -25297,131 +25546,134 @@
       </c>
       <c r="CG13" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AH14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AJ14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AP14" t="n">
         <v>15.0</v>
@@ -25554,131 +25806,134 @@
       </c>
       <c r="CG14" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X15" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG15" t="s">
         <v>314</v>
       </c>
-      <c r="Y15" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>394</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>403</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>313</v>
-      </c>
       <c r="AH15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AJ15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AP15" t="n">
         <v>129.0</v>
@@ -25811,131 +26066,134 @@
       </c>
       <c r="CG15" t="n">
         <v>146.0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="s">
+        <v>224</v>
+      </c>
+      <c r="N16" t="s">
+        <v>239</v>
+      </c>
+      <c r="O16" t="s">
+        <v>247</v>
+      </c>
+      <c r="P16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>159</v>
+      </c>
+      <c r="R16" t="s">
+        <v>173</v>
+      </c>
+      <c r="S16" t="s">
+        <v>173</v>
+      </c>
+      <c r="T16" t="s">
+        <v>168</v>
+      </c>
+      <c r="U16" t="s">
+        <v>168</v>
+      </c>
+      <c r="V16" t="s">
+        <v>173</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD16" t="s">
         <v>161</v>
       </c>
-      <c r="D16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" t="s">
-        <v>161</v>
-      </c>
-      <c r="I16" t="s">
-        <v>205</v>
-      </c>
-      <c r="J16" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="AE16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL16" t="s">
         <v>172</v>
       </c>
-      <c r="M16" t="s">
-        <v>223</v>
-      </c>
-      <c r="N16" t="s">
-        <v>238</v>
-      </c>
-      <c r="O16" t="s">
-        <v>246</v>
-      </c>
-      <c r="P16" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R16" t="s">
-        <v>172</v>
-      </c>
-      <c r="S16" t="s">
-        <v>172</v>
-      </c>
-      <c r="T16" t="s">
-        <v>167</v>
-      </c>
-      <c r="U16" t="s">
-        <v>167</v>
-      </c>
-      <c r="V16" t="s">
-        <v>172</v>
-      </c>
-      <c r="W16" t="s">
-        <v>152</v>
-      </c>
-      <c r="X16" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>356</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>171</v>
-      </c>
       <c r="AM16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AP16" t="n">
         <v>46.0</v>
@@ -26068,131 +26326,134 @@
       </c>
       <c r="CG16" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="s">
+        <v>182</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>268</v>
+      </c>
+      <c r="R17" t="s">
+        <v>239</v>
+      </c>
+      <c r="S17" t="s">
+        <v>276</v>
+      </c>
+      <c r="T17" t="s">
+        <v>172</v>
+      </c>
+      <c r="U17" t="s">
+        <v>172</v>
+      </c>
+      <c r="V17" t="s">
+        <v>253</v>
+      </c>
+      <c r="W17" t="s">
+        <v>253</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE17" t="s">
         <v>162</v>
       </c>
-      <c r="D17" t="s">
+      <c r="AF17" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO17" t="s">
         <v>181</v>
-      </c>
-      <c r="E17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" t="s">
-        <v>225</v>
-      </c>
-      <c r="H17" t="s">
-        <v>238</v>
-      </c>
-      <c r="I17" t="s">
-        <v>252</v>
-      </c>
-      <c r="J17" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" t="s">
-        <v>275</v>
-      </c>
-      <c r="L17" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" t="s">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s">
-        <v>178</v>
-      </c>
-      <c r="O17" t="s">
-        <v>296</v>
-      </c>
-      <c r="P17" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>267</v>
-      </c>
-      <c r="R17" t="s">
-        <v>238</v>
-      </c>
-      <c r="S17" t="s">
-        <v>275</v>
-      </c>
-      <c r="T17" t="s">
-        <v>171</v>
-      </c>
-      <c r="U17" t="s">
-        <v>171</v>
-      </c>
-      <c r="V17" t="s">
-        <v>252</v>
-      </c>
-      <c r="W17" t="s">
-        <v>252</v>
-      </c>
-      <c r="X17" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>246</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>180</v>
       </c>
       <c r="AP17" t="n">
         <v>22.0</v>
@@ -26325,131 +26586,134 @@
       </c>
       <c r="CG17" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" t="s">
+        <v>277</v>
+      </c>
+      <c r="L18" t="s">
+        <v>286</v>
+      </c>
+      <c r="M18" t="s">
+        <v>265</v>
+      </c>
+      <c r="N18" t="s">
+        <v>292</v>
+      </c>
+      <c r="O18" t="s">
+        <v>311</v>
+      </c>
+      <c r="P18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>330</v>
+      </c>
+      <c r="R18" t="s">
+        <v>337</v>
+      </c>
+      <c r="S18" t="s">
+        <v>270</v>
+      </c>
+      <c r="T18" t="s">
+        <v>353</v>
+      </c>
+      <c r="U18" t="s">
+        <v>358</v>
+      </c>
+      <c r="V18" t="s">
+        <v>367</v>
+      </c>
+      <c r="W18" t="s">
+        <v>373</v>
+      </c>
+      <c r="X18" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA18" t="s">
         <v>264</v>
       </c>
-      <c r="K18" t="s">
-        <v>276</v>
-      </c>
-      <c r="L18" t="s">
-        <v>285</v>
-      </c>
-      <c r="M18" t="s">
-        <v>264</v>
-      </c>
-      <c r="N18" t="s">
-        <v>291</v>
-      </c>
-      <c r="O18" t="s">
-        <v>310</v>
-      </c>
-      <c r="P18" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>329</v>
-      </c>
-      <c r="R18" t="s">
-        <v>336</v>
-      </c>
-      <c r="S18" t="s">
-        <v>269</v>
-      </c>
-      <c r="T18" t="s">
-        <v>352</v>
-      </c>
-      <c r="U18" t="s">
-        <v>357</v>
-      </c>
-      <c r="V18" t="s">
-        <v>366</v>
-      </c>
-      <c r="W18" t="s">
-        <v>372</v>
-      </c>
-      <c r="X18" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>263</v>
-      </c>
       <c r="AB18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AD18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AH18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AP18" t="n">
         <v>269.0</v>
@@ -26582,131 +26846,134 @@
       </c>
       <c r="CG18" t="n">
         <v>362.0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>384.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="X19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AC19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AE19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG19" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AI19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP19" t="n">
         <v>465.0</v>
@@ -26839,131 +27106,134 @@
       </c>
       <c r="CG19" t="n">
         <v>608.0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>673.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="V20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="W20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="X20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AB20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AC20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AD20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AE20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AH20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AI20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AJ20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AP20" t="n">
         <v>1695.0</v>
@@ -27096,131 +27366,134 @@
       </c>
       <c r="CG20" t="n">
         <v>1818.0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>1852.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AB21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AD21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AP21" t="n">
         <v>198.0</v>
@@ -27352,132 +27625,135 @@
         <v>224.0</v>
       </c>
       <c r="CG21" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="CH21" t="n">
         <v>227.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M22" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" t="s">
         <v>161</v>
       </c>
-      <c r="N22" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" t="s">
-        <v>160</v>
-      </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AH22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AI22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AP22" t="n">
         <v>38.0</v>
@@ -27610,131 +27886,134 @@
       </c>
       <c r="CG22" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K23" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" t="s">
+        <v>280</v>
+      </c>
+      <c r="M23" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" t="s">
+        <v>293</v>
+      </c>
+      <c r="O23" t="s">
+        <v>269</v>
+      </c>
+      <c r="P23" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R23" t="s">
+        <v>193</v>
+      </c>
+      <c r="S23" t="s">
+        <v>261</v>
+      </c>
+      <c r="T23" t="s">
+        <v>201</v>
+      </c>
+      <c r="U23" t="s">
+        <v>269</v>
+      </c>
+      <c r="V23" t="s">
         <v>167</v>
       </c>
-      <c r="D23" t="s">
+      <c r="W23" t="s">
         <v>186</v>
       </c>
-      <c r="E23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" t="s">
-        <v>256</v>
-      </c>
-      <c r="J23" t="s">
-        <v>268</v>
-      </c>
-      <c r="K23" t="s">
-        <v>279</v>
-      </c>
-      <c r="L23" t="s">
-        <v>279</v>
-      </c>
-      <c r="M23" t="s">
-        <v>152</v>
-      </c>
-      <c r="N23" t="s">
-        <v>292</v>
-      </c>
-      <c r="O23" t="s">
-        <v>268</v>
-      </c>
-      <c r="P23" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>192</v>
-      </c>
-      <c r="R23" t="s">
-        <v>192</v>
-      </c>
-      <c r="S23" t="s">
-        <v>260</v>
-      </c>
-      <c r="T23" t="s">
-        <v>200</v>
-      </c>
-      <c r="U23" t="s">
-        <v>268</v>
-      </c>
-      <c r="V23" t="s">
-        <v>166</v>
-      </c>
-      <c r="W23" t="s">
-        <v>185</v>
-      </c>
       <c r="X23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AE23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AI23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AJ23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP23" t="n">
         <v>52.0</v>
@@ -27867,131 +28146,134 @@
       </c>
       <c r="CG23" t="n">
         <v>86.0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s">
+        <v>282</v>
+      </c>
+      <c r="O24" t="s">
+        <v>232</v>
+      </c>
+      <c r="P24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>177</v>
+      </c>
+      <c r="R24" t="s">
+        <v>340</v>
+      </c>
+      <c r="S24" t="s">
+        <v>195</v>
+      </c>
+      <c r="T24" t="s">
+        <v>216</v>
+      </c>
+      <c r="U24" t="s">
+        <v>361</v>
+      </c>
+      <c r="V24" t="s">
+        <v>169</v>
+      </c>
+      <c r="W24" t="s">
+        <v>376</v>
+      </c>
+      <c r="X24" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE24" t="s">
         <v>281</v>
       </c>
-      <c r="O24" t="s">
-        <v>231</v>
-      </c>
-      <c r="P24" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>176</v>
-      </c>
-      <c r="R24" t="s">
-        <v>339</v>
-      </c>
-      <c r="S24" t="s">
-        <v>194</v>
-      </c>
-      <c r="T24" t="s">
-        <v>215</v>
-      </c>
-      <c r="U24" t="s">
-        <v>360</v>
-      </c>
-      <c r="V24" t="s">
-        <v>168</v>
-      </c>
-      <c r="W24" t="s">
-        <v>375</v>
-      </c>
-      <c r="X24" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>405</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AF24" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO24" t="s">
         <v>169</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>430</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>430</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>447</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>168</v>
       </c>
       <c r="AP24" t="n">
         <v>129.0</v>
@@ -28124,131 +28406,134 @@
       </c>
       <c r="CG24" t="n">
         <v>171.0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
+        <v>259</v>
+      </c>
+      <c r="J25" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" t="s">
+        <v>289</v>
+      </c>
+      <c r="M25" t="s">
+        <v>270</v>
+      </c>
+      <c r="N25" t="s">
+        <v>305</v>
+      </c>
+      <c r="O25" t="s">
+        <v>313</v>
+      </c>
+      <c r="P25" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>333</v>
+      </c>
+      <c r="R25" t="s">
+        <v>158</v>
+      </c>
+      <c r="S25" t="s">
+        <v>348</v>
+      </c>
+      <c r="T25" t="s">
+        <v>223</v>
+      </c>
+      <c r="U25" t="s">
+        <v>217</v>
+      </c>
+      <c r="V25" t="s">
+        <v>353</v>
+      </c>
+      <c r="W25" t="s">
+        <v>377</v>
+      </c>
+      <c r="X25" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>258</v>
       </c>
-      <c r="J25" t="s">
-        <v>269</v>
-      </c>
-      <c r="K25" t="s">
-        <v>280</v>
-      </c>
-      <c r="L25" t="s">
-        <v>288</v>
-      </c>
-      <c r="M25" t="s">
-        <v>269</v>
-      </c>
-      <c r="N25" t="s">
-        <v>304</v>
-      </c>
-      <c r="O25" t="s">
-        <v>312</v>
-      </c>
-      <c r="P25" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>332</v>
-      </c>
-      <c r="R25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S25" t="s">
-        <v>347</v>
-      </c>
-      <c r="T25" t="s">
-        <v>222</v>
-      </c>
-      <c r="U25" t="s">
-        <v>216</v>
-      </c>
-      <c r="V25" t="s">
-        <v>352</v>
-      </c>
-      <c r="W25" t="s">
-        <v>376</v>
-      </c>
-      <c r="X25" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>332</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>389</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>257</v>
-      </c>
       <c r="AK25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AP25" t="n">
         <v>169.0</v>
@@ -28381,131 +28666,134 @@
       </c>
       <c r="CG25" t="n">
         <v>350.0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>357.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AB26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AD26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AP26" t="n">
         <v>5394.0</v>
@@ -28638,131 +28926,134 @@
       </c>
       <c r="CG26" t="n">
         <v>6334.0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>6583.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP27"/>
       <c r="AQ27"/>
@@ -28808,130 +29099,131 @@
       <c r="CE27"/>
       <c r="CF27"/>
       <c r="CG27"/>
+      <c r="CH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP28"/>
       <c r="AQ28"/>
@@ -28977,130 +29269,131 @@
       <c r="CE28"/>
       <c r="CF28"/>
       <c r="CG28"/>
+      <c r="CH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP29"/>
       <c r="AQ29"/>
@@ -29146,130 +29439,131 @@
       <c r="CE29"/>
       <c r="CF29"/>
       <c r="CG29"/>
+      <c r="CH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP30"/>
       <c r="AQ30"/>
@@ -29315,130 +29609,131 @@
       <c r="CE30"/>
       <c r="CF30"/>
       <c r="CG30"/>
+      <c r="CH30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP31"/>
       <c r="AQ31"/>
@@ -29484,130 +29779,131 @@
       <c r="CE31"/>
       <c r="CF31"/>
       <c r="CG31"/>
+      <c r="CH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
         <v>148</v>
       </c>
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP32"/>
       <c r="AQ32"/>
@@ -29653,6 +29949,7 @@
       <c r="CE32"/>
       <c r="CF32"/>
       <c r="CG32"/>
+      <c r="CH32"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp_cap.xlsx
+++ b/original-sources/DSHS_tsa_hosp_cap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C8B1CF72-74F0-4A70-9BAA-DB1E7B2D00FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E74885D-EA9F-4970-AD96-718596CF22B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Available Beds" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Total Occupied Beds" sheetId="3" r:id="rId3"/>
     <sheet name="ICU Beds Occupied" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="1071">
-  <si>
-    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/24/20 at 9:30 AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="1073">
+  <si>
+    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -349,6 +349,9 @@
     <t>2020-07-24</t>
   </si>
   <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -424,9 +427,6 @@
     <t>-- Data incomplete prior to 5/29/2020</t>
   </si>
   <si>
-    <t>* DSHS is reporting incomplete hospitalization numbers today (7/23) due to a transition in reporting to comply with new federal requirements. For July 23, 84.5 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
-  </si>
-  <si>
     <t>Amarillo</t>
   </si>
   <si>
@@ -2395,7 +2395,7 @@
     <t>98</t>
   </si>
   <si>
-    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/24/20 at 9:30 AM CST</t>
+    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>77</t>
@@ -2866,10 +2866,10 @@
     <t>211</t>
   </si>
   <si>
-    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/24/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/24/20 at 9:30 AM CST</t>
+    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>-- Data incomplete prior to 6/1/2020</t>
@@ -3236,6 +3236,12 @@
   </si>
   <si>
     <t>1690</t>
+  </si>
+  <si>
+    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/25 due to a transition in reporting to comply with new federal requirements. For July 25, 89 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -3268,12 +3274,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3299,11 +3311,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3620,28 +3635,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DB29"/>
+  <dimension ref="A1:DC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
-      <selection activeCell="DA3" sqref="DA3:DB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DC2" sqref="DA2:DC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="106" max="106" width="9.83984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:106" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:106" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="DA2" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3960,10 +3981,13 @@
       <c r="DB3" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="DC3" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>134</v>
@@ -4280,10 +4304,13 @@
       <c r="DB4">
         <v>596</v>
       </c>
+      <c r="DC4">
+        <v>596</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
@@ -4600,10 +4627,13 @@
       <c r="DB5">
         <v>1089</v>
       </c>
+      <c r="DC5">
+        <v>742</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
@@ -4920,10 +4950,13 @@
       <c r="DB6">
         <v>298</v>
       </c>
+      <c r="DC6">
+        <v>336</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
@@ -5240,10 +5273,13 @@
       <c r="DB7">
         <v>805</v>
       </c>
+      <c r="DC7">
+        <v>779</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
@@ -5560,10 +5596,13 @@
       <c r="DB8">
         <v>2251</v>
       </c>
+      <c r="DC8">
+        <v>2359</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>139</v>
@@ -5880,10 +5919,13 @@
       <c r="DB9">
         <v>838</v>
       </c>
+      <c r="DC9">
+        <v>706</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>140</v>
@@ -6200,10 +6242,13 @@
       <c r="DB10">
         <v>399</v>
       </c>
+      <c r="DC10">
+        <v>476</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>141</v>
@@ -6520,10 +6565,13 @@
       <c r="DB11">
         <v>108</v>
       </c>
+      <c r="DC11">
+        <v>138</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>142</v>
@@ -6840,10 +6888,13 @@
       <c r="DB12">
         <v>335</v>
       </c>
+      <c r="DC12">
+        <v>396</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>143</v>
@@ -7160,10 +7211,13 @@
       <c r="DB13">
         <v>941</v>
       </c>
+      <c r="DC13">
+        <v>936</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>144</v>
@@ -7480,10 +7534,13 @@
       <c r="DB14">
         <v>129</v>
       </c>
+      <c r="DC14">
+        <v>125</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>145</v>
@@ -7800,10 +7857,13 @@
       <c r="DB15">
         <v>190</v>
       </c>
+      <c r="DC15">
+        <v>176</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
         <v>146</v>
@@ -8120,10 +8180,13 @@
       <c r="DB16">
         <v>182</v>
       </c>
+      <c r="DC16">
+        <v>179</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
@@ -8440,10 +8503,13 @@
       <c r="DB17">
         <v>162</v>
       </c>
+      <c r="DC17">
+        <v>184</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
         <v>148</v>
@@ -8760,10 +8826,13 @@
       <c r="DB18">
         <v>540</v>
       </c>
+      <c r="DC18">
+        <v>627</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>149</v>
@@ -9080,10 +9149,13 @@
       <c r="DB19">
         <v>713</v>
       </c>
+      <c r="DC19">
+        <v>561</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>150</v>
@@ -9400,10 +9472,13 @@
       <c r="DB20">
         <v>1110</v>
       </c>
+      <c r="DC20">
+        <v>1430</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>151</v>
@@ -9720,10 +9795,13 @@
       <c r="DB21">
         <v>187</v>
       </c>
+      <c r="DC21">
+        <v>193</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>152</v>
@@ -10040,10 +10118,13 @@
       <c r="DB22">
         <v>98</v>
       </c>
+      <c r="DC22">
+        <v>107</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>153</v>
@@ -10360,10 +10441,13 @@
       <c r="DB23">
         <v>84</v>
       </c>
+      <c r="DC23">
+        <v>79</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>154</v>
@@ -10680,10 +10764,13 @@
       <c r="DB24">
         <v>1496</v>
       </c>
+      <c r="DC24">
+        <v>1433</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>155</v>
@@ -11000,10 +11087,13 @@
       <c r="DB25">
         <v>1890</v>
       </c>
+      <c r="DC25">
+        <v>1279</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>156</v>
@@ -11320,452 +11410,455 @@
       <c r="DB26">
         <v>14441</v>
       </c>
+      <c r="DC26">
+        <v>13837</v>
+      </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AV27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AW27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AV28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AW28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>1071</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AV29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AW29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -11775,28 +11868,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DB29"/>
+  <dimension ref="A1:DC29"/>
   <sheetViews>
-    <sheetView topLeftCell="CN1" workbookViewId="0">
-      <selection activeCell="DA3" sqref="DA3:DB3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="DC2" sqref="DA2:DC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="106" max="106" width="9.83984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:106" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:106" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="DA2" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12115,10 +12214,13 @@
       <c r="DB3" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="DC3" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>134</v>
@@ -12435,10 +12537,13 @@
       <c r="DB4">
         <v>66</v>
       </c>
+      <c r="DC4">
+        <v>69</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
@@ -12755,10 +12860,13 @@
       <c r="DB5">
         <v>117</v>
       </c>
+      <c r="DC5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
@@ -13075,10 +13183,13 @@
       <c r="DB6">
         <v>10</v>
       </c>
+      <c r="DC6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
@@ -13395,10 +13506,13 @@
       <c r="DB7">
         <v>44</v>
       </c>
+      <c r="DC7">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
@@ -13715,10 +13829,13 @@
       <c r="DB8">
         <v>262</v>
       </c>
+      <c r="DC8">
+        <v>300</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>139</v>
@@ -14035,10 +14152,13 @@
       <c r="DB9">
         <v>91</v>
       </c>
+      <c r="DC9">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>140</v>
@@ -14355,10 +14475,13 @@
       <c r="DB10">
         <v>77</v>
       </c>
+      <c r="DC10">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>141</v>
@@ -14675,10 +14798,13 @@
       <c r="DB11">
         <v>9</v>
       </c>
+      <c r="DC11">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>142</v>
@@ -14995,10 +15121,13 @@
       <c r="DB12">
         <v>11</v>
       </c>
+      <c r="DC12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>143</v>
@@ -15315,10 +15444,13 @@
       <c r="DB13">
         <v>41</v>
       </c>
+      <c r="DC13">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>144</v>
@@ -15635,10 +15767,13 @@
       <c r="DB14">
         <v>0</v>
       </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>145</v>
@@ -15955,10 +16090,13 @@
       <c r="DB15">
         <v>28</v>
       </c>
+      <c r="DC15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
         <v>146</v>
@@ -16275,10 +16413,13 @@
       <c r="DB16">
         <v>12</v>
       </c>
+      <c r="DC16">
+        <v>16</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
@@ -16595,10 +16736,13 @@
       <c r="DB17">
         <v>2</v>
       </c>
+      <c r="DC17">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
         <v>148</v>
@@ -16915,10 +17059,13 @@
       <c r="DB18">
         <v>37</v>
       </c>
+      <c r="DC18">
+        <v>40</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>149</v>
@@ -17235,10 +17382,13 @@
       <c r="DB19">
         <v>79</v>
       </c>
+      <c r="DC19">
+        <v>84</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>150</v>
@@ -17555,10 +17705,13 @@
       <c r="DB20">
         <v>50</v>
       </c>
+      <c r="DC20">
+        <v>72</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>151</v>
@@ -17875,10 +18028,13 @@
       <c r="DB21">
         <v>3</v>
       </c>
+      <c r="DC21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>152</v>
@@ -18195,10 +18351,13 @@
       <c r="DB22">
         <v>8</v>
       </c>
+      <c r="DC22">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>153</v>
@@ -18515,10 +18674,13 @@
       <c r="DB23">
         <v>9</v>
       </c>
+      <c r="DC23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>154</v>
@@ -18835,10 +18997,13 @@
       <c r="DB24">
         <v>159</v>
       </c>
+      <c r="DC24">
+        <v>160</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>155</v>
@@ -19155,10 +19320,13 @@
       <c r="DB25">
         <v>281</v>
       </c>
+      <c r="DC25">
+        <v>230</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>156</v>
@@ -19475,452 +19643,455 @@
       <c r="DB26">
         <v>1396</v>
       </c>
+      <c r="DC26">
+        <v>1261</v>
+      </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AV27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AW27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AV28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AW28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>1071</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AV29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AW29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -19930,28 +20101,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DB28"/>
+  <dimension ref="A1:DC28"/>
   <sheetViews>
-    <sheetView topLeftCell="CN1" workbookViewId="0">
-      <selection activeCell="DA3" sqref="DA3:DB3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="DC2" sqref="DA2:DC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="106" max="106" width="9.83984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:106" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="2" spans="1:106" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="DA2" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -20270,10 +20447,13 @@
       <c r="DB3" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="DC3" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>134</v>
@@ -20590,10 +20770,13 @@
       <c r="DB4">
         <v>1048</v>
       </c>
+      <c r="DC4">
+        <v>1073</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
@@ -20910,10 +21093,13 @@
       <c r="DB5">
         <v>1124</v>
       </c>
+      <c r="DC5">
+        <v>1073</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
@@ -21230,10 +21416,13 @@
       <c r="DB6">
         <v>656</v>
       </c>
+      <c r="DC6">
+        <v>724</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
@@ -21550,10 +21739,13 @@
       <c r="DB7">
         <v>1075</v>
       </c>
+      <c r="DC7">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
@@ -21870,10 +22062,13 @@
       <c r="DB8">
         <v>11829</v>
       </c>
+      <c r="DC8">
+        <v>11055</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>139</v>
@@ -22190,10 +22385,13 @@
       <c r="DB9">
         <v>926</v>
       </c>
+      <c r="DC9">
+        <v>1281</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>140</v>
@@ -22510,10 +22708,13 @@
       <c r="DB10">
         <v>1353</v>
       </c>
+      <c r="DC10">
+        <v>1456</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>141</v>
@@ -22830,10 +23031,13 @@
       <c r="DB11">
         <v>375</v>
       </c>
+      <c r="DC11">
+        <v>380</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>142</v>
@@ -23150,10 +23354,13 @@
       <c r="DB12">
         <v>1141</v>
       </c>
+      <c r="DC12">
+        <v>1298</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>143</v>
@@ -23470,10 +23677,13 @@
       <c r="DB13">
         <v>845</v>
       </c>
+      <c r="DC13">
+        <v>835</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>144</v>
@@ -23790,10 +24000,13 @@
       <c r="DB14">
         <v>0</v>
       </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>145</v>
@@ -24110,10 +24323,13 @@
       <c r="DB15">
         <v>614</v>
       </c>
+      <c r="DC15">
+        <v>702</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
         <v>146</v>
@@ -24430,10 +24646,13 @@
       <c r="DB16">
         <v>146</v>
       </c>
+      <c r="DC16">
+        <v>142</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
@@ -24750,10 +24969,13 @@
       <c r="DB17">
         <v>317</v>
       </c>
+      <c r="DC17">
+        <v>356</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
         <v>148</v>
@@ -25070,10 +25292,13 @@
       <c r="DB18">
         <v>3231</v>
       </c>
+      <c r="DC18">
+        <v>5126</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>149</v>
@@ -25390,10 +25615,13 @@
       <c r="DB19">
         <v>3652</v>
       </c>
+      <c r="DC19">
+        <v>4480</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>150</v>
@@ -25710,10 +25938,13 @@
       <c r="DB20">
         <v>10787</v>
       </c>
+      <c r="DC20">
+        <v>11198</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>151</v>
@@ -26030,10 +26261,13 @@
       <c r="DB21">
         <v>1587</v>
       </c>
+      <c r="DC21">
+        <v>1549</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>152</v>
@@ -26350,10 +26584,13 @@
       <c r="DB22">
         <v>408</v>
       </c>
+      <c r="DC22">
+        <v>445</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>153</v>
@@ -26670,10 +26907,13 @@
       <c r="DB23">
         <v>264</v>
       </c>
+      <c r="DC23">
+        <v>386</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>154</v>
@@ -26990,10 +27230,13 @@
       <c r="DB24">
         <v>1216</v>
       </c>
+      <c r="DC24">
+        <v>1207</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>155</v>
@@ -27310,10 +27553,13 @@
       <c r="DB25">
         <v>2134</v>
       </c>
+      <c r="DC25">
+        <v>2135</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>156</v>
@@ -27630,21 +27876,24 @@
       <c r="DB26">
         <v>44728</v>
       </c>
+      <c r="DC26">
+        <v>47982</v>
+      </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>1071</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -27654,28 +27903,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CQ33"/>
+  <dimension ref="A1:CR33"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CP3" sqref="CP3:CQ3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CQ2" sqref="CQ2:CR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="95" max="95" width="9.83984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:95" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:96" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:95" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:96" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="CP2" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="3" spans="1:95" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:96" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -27961,10 +28216,13 @@
       <c r="CQ3" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="CR3" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>134</v>
@@ -28248,10 +28506,13 @@
       <c r="CQ4">
         <v>182</v>
       </c>
+      <c r="CR4">
+        <v>175</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
@@ -28535,10 +28796,13 @@
       <c r="CQ5">
         <v>162</v>
       </c>
+      <c r="CR5">
+        <v>182</v>
+      </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
@@ -28822,10 +29086,13 @@
       <c r="CQ6">
         <v>59</v>
       </c>
+      <c r="CR6">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
@@ -29109,10 +29376,13 @@
       <c r="CQ7">
         <v>83</v>
       </c>
+      <c r="CR7">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
@@ -29396,10 +29666,13 @@
       <c r="CQ8">
         <v>1208</v>
       </c>
+      <c r="CR8">
+        <v>1198</v>
+      </c>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>139</v>
@@ -29683,10 +29956,13 @@
       <c r="CQ9">
         <v>122</v>
       </c>
+      <c r="CR9">
+        <v>153</v>
+      </c>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>140</v>
@@ -29970,10 +30246,13 @@
       <c r="CQ10">
         <v>215</v>
       </c>
+      <c r="CR10">
+        <v>239</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>141</v>
@@ -30257,10 +30536,13 @@
       <c r="CQ11">
         <v>72</v>
       </c>
+      <c r="CR11">
+        <v>74</v>
+      </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>142</v>
@@ -30544,10 +30826,13 @@
       <c r="CQ12">
         <v>196</v>
       </c>
+      <c r="CR12">
+        <v>208</v>
+      </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>143</v>
@@ -30831,10 +31116,13 @@
       <c r="CQ13">
         <v>73</v>
       </c>
+      <c r="CR13">
+        <v>81</v>
+      </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>144</v>
@@ -31118,10 +31406,13 @@
       <c r="CQ14">
         <v>0</v>
       </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>145</v>
@@ -31405,10 +31696,13 @@
       <c r="CQ15">
         <v>82</v>
       </c>
+      <c r="CR15">
+        <v>79</v>
+      </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
         <v>146</v>
@@ -31692,10 +31986,13 @@
       <c r="CQ16">
         <v>20</v>
       </c>
+      <c r="CR16">
+        <v>18</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
@@ -31979,10 +32276,13 @@
       <c r="CQ17">
         <v>32</v>
       </c>
+      <c r="CR17">
+        <v>37</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
         <v>148</v>
@@ -32266,10 +32566,13 @@
       <c r="CQ18">
         <v>451</v>
       </c>
+      <c r="CR18">
+        <v>760</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>149</v>
@@ -32553,10 +32856,13 @@
       <c r="CQ19">
         <v>745</v>
       </c>
+      <c r="CR19">
+        <v>777</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>150</v>
@@ -32840,10 +33146,13 @@
       <c r="CQ20">
         <v>1881</v>
       </c>
+      <c r="CR20">
+        <v>1859</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>151</v>
@@ -33127,10 +33436,13 @@
       <c r="CQ21">
         <v>224</v>
       </c>
+      <c r="CR21">
+        <v>222</v>
+      </c>
     </row>
-    <row r="22" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>152</v>
@@ -33414,10 +33726,13 @@
       <c r="CQ22">
         <v>80</v>
       </c>
+      <c r="CR22">
+        <v>75</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>153</v>
@@ -33701,10 +34016,13 @@
       <c r="CQ23">
         <v>62</v>
       </c>
+      <c r="CR23">
+        <v>78</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>154</v>
@@ -33988,10 +34306,13 @@
       <c r="CQ24">
         <v>201</v>
       </c>
+      <c r="CR24">
+        <v>203</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>155</v>
@@ -34275,10 +34596,13 @@
       <c r="CQ25">
         <v>402</v>
       </c>
+      <c r="CR25">
+        <v>382</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>156</v>
@@ -34562,883 +34886,887 @@
       <c r="CQ26">
         <v>6552</v>
       </c>
+      <c r="CR26">
+        <v>6932</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>949</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>1071</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/original-sources/DSHS_tsa_hosp_cap.xlsx
+++ b/original-sources/DSHS_tsa_hosp_cap.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="488">
-  <si>
-    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="489">
+  <si>
+    <t>Total Beds Available by Trauma Service Area (TSA), 4/12/2020 - 08/09/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -389,6 +389,9 @@
     <t>2020-08-08.y</t>
   </si>
   <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -533,13 +536,13 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
+    <t>Total ICU Beds Available by Trauma Service Area (TSA), 4/12/2020 - 08/09/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Total Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 08/09/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Total ICU Beds Occupied by Trauma Service Area (TSA), 4/12/2020 - 08/09/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>-- Data incomplete prior to 6/1/2020</t>
@@ -1971,13 +1974,16 @@
       <c r="DR3" t="s" s="10">
         <v>123</v>
       </c>
+      <c r="DS3" t="s" s="10">
+        <v>124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -2338,14 +2344,17 @@
       </c>
       <c r="DR4" t="n">
         <v>638.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>649.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -2706,14 +2715,17 @@
       </c>
       <c r="DR5" t="n">
         <v>464.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>524.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -3074,14 +3086,17 @@
       </c>
       <c r="DR6" t="n">
         <v>299.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>310.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -3442,14 +3457,17 @@
       </c>
       <c r="DR7" t="n">
         <v>285.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>316.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -3810,14 +3828,17 @@
       </c>
       <c r="DR8" t="n">
         <v>2317.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>2378.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -4178,14 +4199,17 @@
       </c>
       <c r="DR9" t="n">
         <v>291.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -4546,14 +4570,17 @@
       </c>
       <c r="DR10" t="n">
         <v>287.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -4914,14 +4941,17 @@
       </c>
       <c r="DR11" t="n">
         <v>141.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -5282,14 +5312,17 @@
       </c>
       <c r="DR12" t="n">
         <v>402.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>409.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -5650,14 +5683,17 @@
       </c>
       <c r="DR13" t="n">
         <v>572.0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>524.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6018,14 +6054,17 @@
       </c>
       <c r="DR14" t="n">
         <v>399.0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -6386,14 +6425,17 @@
       </c>
       <c r="DR15" t="n">
         <v>289.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>294.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -6754,14 +6796,17 @@
       </c>
       <c r="DR16" t="n">
         <v>150.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -7122,14 +7167,17 @@
       </c>
       <c r="DR17" t="n">
         <v>154.0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -7490,14 +7538,17 @@
       </c>
       <c r="DR18" t="n">
         <v>442.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>457.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -7858,14 +7909,17 @@
       </c>
       <c r="DR19" t="n">
         <v>1068.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>988.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -8226,14 +8280,17 @@
       </c>
       <c r="DR20" t="n">
         <v>1553.0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>1729.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -8594,14 +8651,17 @@
       </c>
       <c r="DR21" t="n">
         <v>188.0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -8962,14 +9022,17 @@
       </c>
       <c r="DR22" t="n">
         <v>133.0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -9330,14 +9393,17 @@
       </c>
       <c r="DR23" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -9698,14 +9764,17 @@
       </c>
       <c r="DR24" t="n">
         <v>578.0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>532.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -10066,14 +10135,17 @@
       </c>
       <c r="DR25" t="n">
         <v>724.0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>733.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -10434,14 +10506,17 @@
       </c>
       <c r="DR26" t="n">
         <v>11396.0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>11749.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10563,13 +10638,14 @@
       <c r="DP27"/>
       <c r="DQ27"/>
       <c r="DR27"/>
+      <c r="DS27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10691,6 +10767,7 @@
       <c r="DP28"/>
       <c r="DQ28"/>
       <c r="DR28"/>
+      <c r="DS28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10707,7 +10784,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -11082,13 +11159,16 @@
       <c r="DR3" t="s" s="10">
         <v>123</v>
       </c>
+      <c r="DS3" t="s" s="10">
+        <v>124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -11449,14 +11529,17 @@
       </c>
       <c r="DR4" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -11817,14 +11900,17 @@
       </c>
       <c r="DR5" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -12185,14 +12271,17 @@
       </c>
       <c r="DR6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -12553,14 +12642,17 @@
       </c>
       <c r="DR7" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -12921,14 +13013,17 @@
       </c>
       <c r="DR8" t="n">
         <v>309.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>321.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -13289,14 +13384,17 @@
       </c>
       <c r="DR9" t="n">
         <v>40.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13657,14 +13755,17 @@
       </c>
       <c r="DR10" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -14025,14 +14126,17 @@
       </c>
       <c r="DR11" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -14393,14 +14497,17 @@
       </c>
       <c r="DR12" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -14761,14 +14868,17 @@
       </c>
       <c r="DR13" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -15128,15 +15238,18 @@
         <v>10.0</v>
       </c>
       <c r="DR14" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DS14" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -15497,14 +15610,17 @@
       </c>
       <c r="DR15" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -15865,14 +15981,17 @@
       </c>
       <c r="DR16" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -16232,15 +16351,18 @@
         <v>11.0</v>
       </c>
       <c r="DR17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DS17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -16601,14 +16723,17 @@
       </c>
       <c r="DR18" t="n">
         <v>81.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -16969,14 +17094,17 @@
       </c>
       <c r="DR19" t="n">
         <v>161.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -17337,14 +17465,17 @@
       </c>
       <c r="DR20" t="n">
         <v>113.0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -17705,14 +17836,17 @@
       </c>
       <c r="DR21" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -18073,14 +18207,17 @@
       </c>
       <c r="DR22" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -18441,14 +18578,17 @@
       </c>
       <c r="DR23" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -18809,14 +18949,17 @@
       </c>
       <c r="DR24" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -19177,14 +19320,17 @@
       </c>
       <c r="DR25" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -19545,14 +19691,17 @@
       </c>
       <c r="DR26" t="n">
         <v>1115.0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>1123.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -19674,13 +19823,14 @@
       <c r="DP27"/>
       <c r="DQ27"/>
       <c r="DR27"/>
+      <c r="DS27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -19802,6 +19952,7 @@
       <c r="DP28"/>
       <c r="DQ28"/>
       <c r="DR28"/>
+      <c r="DS28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -19818,7 +19969,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
@@ -20193,13 +20344,16 @@
       <c r="DR3" t="s" s="10">
         <v>123</v>
       </c>
+      <c r="DS3" t="s" s="10">
+        <v>124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
         <v>417.0</v>
@@ -20560,14 +20714,17 @@
       </c>
       <c r="DR4" t="n">
         <v>634.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>642.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
         <v>755.0</v>
@@ -20928,14 +21085,17 @@
       </c>
       <c r="DR5" t="n">
         <v>933.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>913.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
         <v>240.0</v>
@@ -21296,14 +21456,17 @@
       </c>
       <c r="DR6" t="n">
         <v>333.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>323.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="n">
         <v>214.0</v>
@@ -21664,14 +21827,17 @@
       </c>
       <c r="DR7" t="n">
         <v>561.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>488.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
         <v>7347.0</v>
@@ -22032,14 +22198,17 @@
       </c>
       <c r="DR8" t="n">
         <v>11304.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>11211.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>421.0</v>
@@ -22400,14 +22569,17 @@
       </c>
       <c r="DR9" t="n">
         <v>696.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>699.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
         <v>921.0</v>
@@ -22768,14 +22940,17 @@
       </c>
       <c r="DR10" t="n">
         <v>1559.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>1546.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="n">
         <v>190.0</v>
@@ -23136,14 +23311,17 @@
       </c>
       <c r="DR11" t="n">
         <v>287.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
         <v>328.0</v>
@@ -23504,14 +23682,17 @@
       </c>
       <c r="DR12" t="n">
         <v>1500.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>1454.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="n">
         <v>663.0</v>
@@ -23872,14 +24053,17 @@
       </c>
       <c r="DR13" t="n">
         <v>697.0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>656.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>208.0</v>
@@ -24240,14 +24424,17 @@
       </c>
       <c r="DR14" t="n">
         <v>288.0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
         <v>434.0</v>
@@ -24608,14 +24795,17 @@
       </c>
       <c r="DR15" t="n">
         <v>731.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>735.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="n">
         <v>262.0</v>
@@ -24976,14 +25166,17 @@
       </c>
       <c r="DR16" t="n">
         <v>359.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
         <v>234.0</v>
@@ -25344,14 +25537,17 @@
       </c>
       <c r="DR17" t="n">
         <v>308.0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>279.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
         <v>1059.0</v>
@@ -25712,14 +25908,17 @@
       </c>
       <c r="DR18" t="n">
         <v>2329.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>2337.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="n">
         <v>3398.0</v>
@@ -26080,14 +26279,17 @@
       </c>
       <c r="DR19" t="n">
         <v>4512.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>4199.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="n">
         <v>6949.0</v>
@@ -26448,14 +26650,17 @@
       </c>
       <c r="DR20" t="n">
         <v>10850.0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>10950.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="n">
         <v>867.0</v>
@@ -26816,14 +27021,17 @@
       </c>
       <c r="DR21" t="n">
         <v>1592.0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>1383.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="n">
         <v>254.0</v>
@@ -27184,14 +27392,17 @@
       </c>
       <c r="DR22" t="n">
         <v>357.0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>340.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
         <v>255.0</v>
@@ -27552,14 +27763,17 @@
       </c>
       <c r="DR23" t="n">
         <v>418.0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>402.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="n">
         <v>785.0</v>
@@ -27920,14 +28134,17 @@
       </c>
       <c r="DR24" t="n">
         <v>1043.0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>935.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
         <v>1219.0</v>
@@ -28288,14 +28505,17 @@
       </c>
       <c r="DR25" t="n">
         <v>2212.0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>2049.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" t="n">
         <v>27420.0</v>
@@ -28656,14 +28876,17 @@
       </c>
       <c r="DR26" t="n">
         <v>43503.0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>42537.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -28785,13 +29008,14 @@
       <c r="DP27"/>
       <c r="DQ27"/>
       <c r="DR27"/>
+      <c r="DS27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -28913,13 +29137,14 @@
       <c r="DP28"/>
       <c r="DQ28"/>
       <c r="DR28"/>
+      <c r="DS28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="s">
         <v>148</v>
-      </c>
-      <c r="B29" t="s">
-        <v>147</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -29041,6 +29266,7 @@
       <c r="DP29"/>
       <c r="DQ29"/>
       <c r="DR29"/>
+      <c r="DS29"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -29057,7 +29283,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">
@@ -29399,130 +29625,133 @@
       <c r="DG3" t="s" s="10">
         <v>123</v>
       </c>
+      <c r="DH3" t="s" s="10">
+        <v>124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="W4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="X4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y4" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM4" t="s">
         <v>389</v>
       </c>
-      <c r="Z4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>388</v>
-      </c>
       <c r="AN4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AP4" t="n">
         <v>92.0</v>
@@ -29733,131 +29962,134 @@
       </c>
       <c r="DG4" t="n">
         <v>88.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" t="s">
+        <v>309</v>
+      </c>
+      <c r="M5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>334</v>
+      </c>
+      <c r="P5" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>353</v>
+      </c>
+      <c r="R5" t="s">
+        <v>361</v>
+      </c>
+      <c r="S5" t="s">
+        <v>368</v>
+      </c>
+      <c r="T5" t="s">
+        <v>376</v>
+      </c>
+      <c r="U5" t="s">
+        <v>382</v>
+      </c>
+      <c r="V5" t="s">
+        <v>390</v>
+      </c>
+      <c r="W5" t="s">
+        <v>390</v>
+      </c>
+      <c r="X5" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL5" t="s">
         <v>216</v>
       </c>
-      <c r="F5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I5" t="s">
-        <v>272</v>
-      </c>
-      <c r="J5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" t="s">
-        <v>308</v>
-      </c>
-      <c r="M5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N5" t="s">
-        <v>244</v>
-      </c>
-      <c r="O5" t="s">
-        <v>333</v>
-      </c>
-      <c r="P5" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>352</v>
-      </c>
-      <c r="R5" t="s">
-        <v>360</v>
-      </c>
-      <c r="S5" t="s">
-        <v>367</v>
-      </c>
-      <c r="T5" t="s">
-        <v>375</v>
-      </c>
-      <c r="U5" t="s">
-        <v>381</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="AM5" t="s">
         <v>389</v>
       </c>
-      <c r="W5" t="s">
-        <v>389</v>
-      </c>
-      <c r="X5" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>446</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>451</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>451</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>340</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>388</v>
-      </c>
       <c r="AN5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AP5" t="n">
         <v>100.0</v>
@@ -30067,132 +30299,135 @@
         <v>162.0</v>
       </c>
       <c r="DG5" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="DH5" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="W6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="X6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AE6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AH6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AI6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AP6" t="n">
         <v>24.0</v>
@@ -30403,131 +30638,134 @@
       </c>
       <c r="DG6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M7" t="s">
+        <v>274</v>
+      </c>
+      <c r="N7" t="s">
+        <v>324</v>
+      </c>
+      <c r="O7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>324</v>
+      </c>
+      <c r="R7" t="s">
+        <v>251</v>
+      </c>
+      <c r="S7" t="s">
+        <v>274</v>
+      </c>
+      <c r="T7" t="s">
         <v>199</v>
       </c>
-      <c r="E7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="U7" t="s">
+        <v>208</v>
+      </c>
+      <c r="V7" t="s">
+        <v>251</v>
+      </c>
+      <c r="W7" t="s">
+        <v>251</v>
+      </c>
+      <c r="X7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z7" t="s">
         <v>213</v>
       </c>
-      <c r="K7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M7" t="s">
-        <v>273</v>
-      </c>
-      <c r="N7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>323</v>
-      </c>
-      <c r="R7" t="s">
-        <v>250</v>
-      </c>
-      <c r="S7" t="s">
-        <v>273</v>
-      </c>
-      <c r="T7" t="s">
-        <v>198</v>
-      </c>
-      <c r="U7" t="s">
-        <v>207</v>
-      </c>
-      <c r="V7" t="s">
-        <v>250</v>
-      </c>
-      <c r="W7" t="s">
-        <v>250</v>
-      </c>
-      <c r="X7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>212</v>
-      </c>
       <c r="AA7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AB7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AC7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AD7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AE7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AH7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP7" t="n">
         <v>31.0</v>
@@ -30738,131 +30976,134 @@
       </c>
       <c r="DG7" t="n">
         <v>47.0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="V8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="W8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="X8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AB8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AC8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AD8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AE8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AH8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AJ8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AK8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AP8" t="n">
         <v>1361.0</v>
@@ -31073,131 +31314,134 @@
       </c>
       <c r="DG8" t="n">
         <v>1380.0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>1345.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="W9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AB9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AD9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AJ9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP9" t="n">
         <v>49.0</v>
@@ -31408,131 +31652,134 @@
       </c>
       <c r="DG9" t="n">
         <v>80.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="V10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="X10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AB10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AD10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AE10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AH10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AI10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AJ10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AP10" t="n">
         <v>203.0</v>
@@ -31743,131 +31990,134 @@
       </c>
       <c r="DG10" t="n">
         <v>254.0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AI11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AJ11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP11" t="n">
         <v>45.0</v>
@@ -32078,131 +32328,134 @@
       </c>
       <c r="DG11" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" t="s">
+        <v>301</v>
+      </c>
+      <c r="L12" t="s">
+        <v>312</v>
+      </c>
+      <c r="M12" t="s">
+        <v>319</v>
+      </c>
+      <c r="N12" t="s">
+        <v>327</v>
+      </c>
+      <c r="O12" t="s">
+        <v>319</v>
+      </c>
+      <c r="P12" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>355</v>
+      </c>
+      <c r="R12" t="s">
+        <v>362</v>
+      </c>
+      <c r="S12" t="s">
+        <v>355</v>
+      </c>
+      <c r="T12" t="s">
+        <v>378</v>
+      </c>
+      <c r="U12" t="s">
+        <v>290</v>
+      </c>
+      <c r="V12" t="s">
         <v>262</v>
       </c>
-      <c r="I12" t="s">
+      <c r="W12" t="s">
         <v>277</v>
       </c>
-      <c r="J12" t="s">
-        <v>289</v>
-      </c>
-      <c r="K12" t="s">
-        <v>300</v>
-      </c>
-      <c r="L12" t="s">
-        <v>311</v>
-      </c>
-      <c r="M12" t="s">
-        <v>318</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="X12" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y12" t="s">
         <v>326</v>
       </c>
-      <c r="O12" t="s">
-        <v>318</v>
-      </c>
-      <c r="P12" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>354</v>
-      </c>
-      <c r="R12" t="s">
-        <v>361</v>
-      </c>
-      <c r="S12" t="s">
-        <v>354</v>
-      </c>
-      <c r="T12" t="s">
-        <v>377</v>
-      </c>
-      <c r="U12" t="s">
-        <v>289</v>
-      </c>
-      <c r="V12" t="s">
-        <v>261</v>
-      </c>
-      <c r="W12" t="s">
-        <v>276</v>
-      </c>
-      <c r="X12" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>325</v>
-      </c>
       <c r="Z12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AD12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AE12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AH12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AI12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP12" t="n">
         <v>213.0</v>
@@ -32413,131 +32666,134 @@
       </c>
       <c r="DG12" t="n">
         <v>237.0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" t="s">
         <v>188</v>
       </c>
-      <c r="G13" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I13" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" t="s">
+        <v>320</v>
+      </c>
+      <c r="N13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>214</v>
+      </c>
+      <c r="R13" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" t="s">
+        <v>324</v>
+      </c>
+      <c r="T13" t="s">
+        <v>295</v>
+      </c>
+      <c r="U13" t="s">
+        <v>295</v>
+      </c>
+      <c r="V13" t="s">
+        <v>251</v>
+      </c>
+      <c r="W13" t="s">
+        <v>295</v>
+      </c>
+      <c r="X13" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>188</v>
       </c>
-      <c r="K13" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" t="s">
-        <v>237</v>
-      </c>
-      <c r="M13" t="s">
-        <v>319</v>
-      </c>
-      <c r="N13" t="s">
-        <v>193</v>
-      </c>
-      <c r="O13" t="s">
-        <v>204</v>
-      </c>
-      <c r="P13" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>213</v>
-      </c>
-      <c r="R13" t="s">
-        <v>185</v>
-      </c>
-      <c r="S13" t="s">
-        <v>323</v>
-      </c>
-      <c r="T13" t="s">
-        <v>294</v>
-      </c>
-      <c r="U13" t="s">
-        <v>294</v>
-      </c>
-      <c r="V13" t="s">
-        <v>250</v>
-      </c>
-      <c r="W13" t="s">
-        <v>294</v>
-      </c>
-      <c r="X13" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AK13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL13" t="s">
         <v>194</v>
       </c>
-      <c r="AB13" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG13" t="s">
+      <c r="AM13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN13" t="s">
         <v>194</v>
       </c>
-      <c r="AH13" t="s">
-        <v>415</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>237</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>193</v>
-      </c>
       <c r="AO13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AP13" t="n">
         <v>49.0</v>
@@ -32747,132 +33003,135 @@
         <v>63.0</v>
       </c>
       <c r="DG13" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="DH13" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AC14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AD14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AE14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AH14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AI14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AJ14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP14" t="n">
         <v>15.0</v>
@@ -33083,131 +33342,134 @@
       </c>
       <c r="DG14" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="W15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X15" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG15" t="s">
         <v>341</v>
       </c>
-      <c r="Y15" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>449</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>340</v>
-      </c>
       <c r="AH15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP15" t="n">
         <v>129.0</v>
@@ -33418,131 +33680,134 @@
       </c>
       <c r="DG15" t="n">
         <v>92.0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N16" t="s">
+        <v>266</v>
+      </c>
+      <c r="O16" t="s">
+        <v>274</v>
+      </c>
+      <c r="P16" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>186</v>
+      </c>
+      <c r="R16" t="s">
+        <v>200</v>
+      </c>
+      <c r="S16" t="s">
+        <v>200</v>
+      </c>
+      <c r="T16" t="s">
+        <v>195</v>
+      </c>
+      <c r="U16" t="s">
+        <v>195</v>
+      </c>
+      <c r="V16" t="s">
+        <v>200</v>
+      </c>
+      <c r="W16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD16" t="s">
         <v>188</v>
       </c>
-      <c r="D16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" t="s">
-        <v>188</v>
-      </c>
-      <c r="I16" t="s">
-        <v>232</v>
-      </c>
-      <c r="J16" t="s">
-        <v>194</v>
-      </c>
-      <c r="K16" t="s">
-        <v>188</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="AE16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL16" t="s">
         <v>199</v>
       </c>
-      <c r="M16" t="s">
-        <v>250</v>
-      </c>
-      <c r="N16" t="s">
-        <v>265</v>
-      </c>
-      <c r="O16" t="s">
-        <v>273</v>
-      </c>
-      <c r="P16" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>185</v>
-      </c>
-      <c r="R16" t="s">
-        <v>199</v>
-      </c>
-      <c r="S16" t="s">
-        <v>199</v>
-      </c>
-      <c r="T16" t="s">
-        <v>194</v>
-      </c>
-      <c r="U16" t="s">
-        <v>194</v>
-      </c>
-      <c r="V16" t="s">
-        <v>199</v>
-      </c>
-      <c r="W16" t="s">
-        <v>179</v>
-      </c>
-      <c r="X16" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>383</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>319</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>265</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>198</v>
-      </c>
       <c r="AM16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP16" t="n">
         <v>46.0</v>
@@ -33753,131 +34018,134 @@
       </c>
       <c r="DG16" t="n">
         <v>52.0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N17" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" t="s">
+        <v>324</v>
+      </c>
+      <c r="P17" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>295</v>
+      </c>
+      <c r="R17" t="s">
+        <v>266</v>
+      </c>
+      <c r="S17" t="s">
+        <v>303</v>
+      </c>
+      <c r="T17" t="s">
+        <v>199</v>
+      </c>
+      <c r="U17" t="s">
+        <v>199</v>
+      </c>
+      <c r="V17" t="s">
+        <v>280</v>
+      </c>
+      <c r="W17" t="s">
+        <v>280</v>
+      </c>
+      <c r="X17" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE17" t="s">
         <v>189</v>
       </c>
-      <c r="D17" t="s">
+      <c r="AF17" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO17" t="s">
         <v>208</v>
-      </c>
-      <c r="E17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" t="s">
-        <v>252</v>
-      </c>
-      <c r="H17" t="s">
-        <v>265</v>
-      </c>
-      <c r="I17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J17" t="s">
-        <v>208</v>
-      </c>
-      <c r="K17" t="s">
-        <v>302</v>
-      </c>
-      <c r="L17" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" t="s">
-        <v>208</v>
-      </c>
-      <c r="N17" t="s">
-        <v>205</v>
-      </c>
-      <c r="O17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P17" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>294</v>
-      </c>
-      <c r="R17" t="s">
-        <v>265</v>
-      </c>
-      <c r="S17" t="s">
-        <v>302</v>
-      </c>
-      <c r="T17" t="s">
-        <v>198</v>
-      </c>
-      <c r="U17" t="s">
-        <v>198</v>
-      </c>
-      <c r="V17" t="s">
-        <v>279</v>
-      </c>
-      <c r="W17" t="s">
-        <v>279</v>
-      </c>
-      <c r="X17" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>327</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>323</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>265</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>207</v>
       </c>
       <c r="AP17" t="n">
         <v>22.0</v>
@@ -34088,131 +34356,134 @@
       </c>
       <c r="DG17" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J18" t="s">
+        <v>292</v>
+      </c>
+      <c r="K18" t="s">
+        <v>304</v>
+      </c>
+      <c r="L18" t="s">
+        <v>313</v>
+      </c>
+      <c r="M18" t="s">
+        <v>292</v>
+      </c>
+      <c r="N18" t="s">
+        <v>319</v>
+      </c>
+      <c r="O18" t="s">
+        <v>338</v>
+      </c>
+      <c r="P18" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>357</v>
+      </c>
+      <c r="R18" t="s">
+        <v>364</v>
+      </c>
+      <c r="S18" t="s">
+        <v>297</v>
+      </c>
+      <c r="T18" t="s">
+        <v>380</v>
+      </c>
+      <c r="U18" t="s">
+        <v>385</v>
+      </c>
+      <c r="V18" t="s">
+        <v>394</v>
+      </c>
+      <c r="W18" t="s">
+        <v>400</v>
+      </c>
+      <c r="X18" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA18" t="s">
         <v>291</v>
       </c>
-      <c r="K18" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" t="s">
-        <v>312</v>
-      </c>
-      <c r="M18" t="s">
-        <v>291</v>
-      </c>
-      <c r="N18" t="s">
-        <v>318</v>
-      </c>
-      <c r="O18" t="s">
-        <v>337</v>
-      </c>
-      <c r="P18" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>356</v>
-      </c>
-      <c r="R18" t="s">
-        <v>363</v>
-      </c>
-      <c r="S18" t="s">
-        <v>296</v>
-      </c>
-      <c r="T18" t="s">
-        <v>379</v>
-      </c>
-      <c r="U18" t="s">
-        <v>384</v>
-      </c>
-      <c r="V18" t="s">
-        <v>393</v>
-      </c>
-      <c r="W18" t="s">
-        <v>399</v>
-      </c>
-      <c r="X18" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>290</v>
-      </c>
       <c r="AB18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AD18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AE18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AH18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AI18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AJ18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AK18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP18" t="n">
         <v>269.0</v>
@@ -34423,131 +34694,134 @@
       </c>
       <c r="DG18" t="n">
         <v>371.0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>368.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="W19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="X19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Y19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AB19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AC19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AD19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AE19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF19" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG19" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AI19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AJ19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL19" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN19" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AP19" t="n">
         <v>465.0</v>
@@ -34758,131 +35032,134 @@
       </c>
       <c r="DG19" t="n">
         <v>818.0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>835.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="U20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="W20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="X20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AB20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AC20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AD20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AI20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AJ20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AP20" t="n">
         <v>1695.0</v>
@@ -35093,131 +35370,134 @@
       </c>
       <c r="DG20" t="n">
         <v>1858.0</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>1856.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AI21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AJ21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP21" t="n">
         <v>198.0</v>
@@ -35428,131 +35708,134 @@
       </c>
       <c r="DG21" t="n">
         <v>221.0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M22" t="s">
+        <v>189</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
         <v>188</v>
       </c>
-      <c r="N22" t="s">
-        <v>179</v>
-      </c>
-      <c r="O22" t="s">
-        <v>187</v>
-      </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="X22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AD22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AH22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP22" t="n">
         <v>38.0</v>
@@ -35763,131 +36046,134 @@
       </c>
       <c r="DG22" t="n">
         <v>64.0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" t="s">
+        <v>284</v>
+      </c>
+      <c r="J23" t="s">
+        <v>296</v>
+      </c>
+      <c r="K23" t="s">
+        <v>307</v>
+      </c>
+      <c r="L23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M23" t="s">
+        <v>180</v>
+      </c>
+      <c r="N23" t="s">
+        <v>320</v>
+      </c>
+      <c r="O23" t="s">
+        <v>296</v>
+      </c>
+      <c r="P23" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>220</v>
+      </c>
+      <c r="R23" t="s">
+        <v>220</v>
+      </c>
+      <c r="S23" t="s">
+        <v>288</v>
+      </c>
+      <c r="T23" t="s">
+        <v>228</v>
+      </c>
+      <c r="U23" t="s">
+        <v>296</v>
+      </c>
+      <c r="V23" t="s">
         <v>194</v>
       </c>
-      <c r="D23" t="s">
+      <c r="W23" t="s">
         <v>213</v>
       </c>
-      <c r="E23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F23" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" t="s">
-        <v>232</v>
-      </c>
-      <c r="I23" t="s">
-        <v>283</v>
-      </c>
-      <c r="J23" t="s">
-        <v>295</v>
-      </c>
-      <c r="K23" t="s">
-        <v>306</v>
-      </c>
-      <c r="L23" t="s">
-        <v>306</v>
-      </c>
-      <c r="M23" t="s">
-        <v>179</v>
-      </c>
-      <c r="N23" t="s">
-        <v>319</v>
-      </c>
-      <c r="O23" t="s">
-        <v>295</v>
-      </c>
-      <c r="P23" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>219</v>
-      </c>
-      <c r="R23" t="s">
-        <v>219</v>
-      </c>
-      <c r="S23" t="s">
-        <v>287</v>
-      </c>
-      <c r="T23" t="s">
-        <v>227</v>
-      </c>
-      <c r="U23" t="s">
-        <v>295</v>
-      </c>
-      <c r="V23" t="s">
-        <v>193</v>
-      </c>
-      <c r="W23" t="s">
-        <v>212</v>
-      </c>
       <c r="X23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AB23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AD23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AE23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AI23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AJ23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP23" t="n">
         <v>52.0</v>
@@ -36098,131 +36384,134 @@
       </c>
       <c r="DG23" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N24" t="s">
+        <v>309</v>
+      </c>
+      <c r="O24" t="s">
+        <v>259</v>
+      </c>
+      <c r="P24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>204</v>
+      </c>
+      <c r="R24" t="s">
+        <v>367</v>
+      </c>
+      <c r="S24" t="s">
+        <v>222</v>
+      </c>
+      <c r="T24" t="s">
+        <v>243</v>
+      </c>
+      <c r="U24" t="s">
+        <v>388</v>
+      </c>
+      <c r="V24" t="s">
+        <v>196</v>
+      </c>
+      <c r="W24" t="s">
+        <v>403</v>
+      </c>
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE24" t="s">
         <v>308</v>
       </c>
-      <c r="O24" t="s">
-        <v>258</v>
-      </c>
-      <c r="P24" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>203</v>
-      </c>
-      <c r="R24" t="s">
-        <v>366</v>
-      </c>
-      <c r="S24" t="s">
-        <v>221</v>
-      </c>
-      <c r="T24" t="s">
-        <v>242</v>
-      </c>
-      <c r="U24" t="s">
-        <v>387</v>
-      </c>
-      <c r="V24" t="s">
-        <v>195</v>
-      </c>
-      <c r="W24" t="s">
-        <v>402</v>
-      </c>
-      <c r="X24" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AF24" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>458</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>403</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO24" t="s">
         <v>196</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>457</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>387</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>457</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>402</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>474</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>402</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>195</v>
       </c>
       <c r="AP24" t="n">
         <v>129.0</v>
@@ -36433,131 +36722,134 @@
       </c>
       <c r="DG24" t="n">
         <v>224.0</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>223.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I25" t="s">
+        <v>286</v>
+      </c>
+      <c r="J25" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" t="s">
+        <v>308</v>
+      </c>
+      <c r="L25" t="s">
+        <v>316</v>
+      </c>
+      <c r="M25" t="s">
+        <v>297</v>
+      </c>
+      <c r="N25" t="s">
+        <v>332</v>
+      </c>
+      <c r="O25" t="s">
+        <v>340</v>
+      </c>
+      <c r="P25" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>360</v>
+      </c>
+      <c r="R25" t="s">
+        <v>185</v>
+      </c>
+      <c r="S25" t="s">
+        <v>375</v>
+      </c>
+      <c r="T25" t="s">
+        <v>250</v>
+      </c>
+      <c r="U25" t="s">
+        <v>244</v>
+      </c>
+      <c r="V25" t="s">
+        <v>380</v>
+      </c>
+      <c r="W25" t="s">
+        <v>404</v>
+      </c>
+      <c r="X25" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>417</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>285</v>
       </c>
-      <c r="J25" t="s">
-        <v>296</v>
-      </c>
-      <c r="K25" t="s">
-        <v>307</v>
-      </c>
-      <c r="L25" t="s">
-        <v>315</v>
-      </c>
-      <c r="M25" t="s">
-        <v>296</v>
-      </c>
-      <c r="N25" t="s">
-        <v>331</v>
-      </c>
-      <c r="O25" t="s">
-        <v>339</v>
-      </c>
-      <c r="P25" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>359</v>
-      </c>
-      <c r="R25" t="s">
-        <v>184</v>
-      </c>
-      <c r="S25" t="s">
-        <v>374</v>
-      </c>
-      <c r="T25" t="s">
-        <v>249</v>
-      </c>
-      <c r="U25" t="s">
-        <v>243</v>
-      </c>
-      <c r="V25" t="s">
-        <v>379</v>
-      </c>
-      <c r="W25" t="s">
-        <v>403</v>
-      </c>
-      <c r="X25" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>435</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>416</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>284</v>
-      </c>
       <c r="AK25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AP25" t="n">
         <v>169.0</v>
@@ -36768,131 +37060,134 @@
       </c>
       <c r="DG25" t="n">
         <v>527.0</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>519.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AI26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AJ26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP26" t="n">
         <v>5394.0</v>
@@ -37103,131 +37398,134 @@
       </c>
       <c r="DG26" t="n">
         <v>6809.0</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>6726.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP27"/>
       <c r="AQ27"/>
@@ -37299,130 +37597,131 @@
       <c r="DE27"/>
       <c r="DF27"/>
       <c r="DG27"/>
+      <c r="DH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP28"/>
       <c r="AQ28"/>
@@ -37494,130 +37793,131 @@
       <c r="DE28"/>
       <c r="DF28"/>
       <c r="DG28"/>
+      <c r="DH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP29"/>
       <c r="AQ29"/>
@@ -37689,130 +37989,131 @@
       <c r="DE29"/>
       <c r="DF29"/>
       <c r="DG29"/>
+      <c r="DH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
         <v>148</v>
       </c>
-      <c r="B30" t="s">
-        <v>147</v>
-      </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP30"/>
       <c r="AQ30"/>
@@ -37884,6 +38185,7 @@
       <c r="DE30"/>
       <c r="DF30"/>
       <c r="DG30"/>
+      <c r="DH30"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
